--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <r>
       <t>1.</t>
@@ -404,6 +404,33 @@
   </si>
   <si>
     <t>关闭防火墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl stop firewalld.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看防火墙状态：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">systemctl status firewalld </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -893,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -923,7 +950,12 @@
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="命令" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="swoole" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <r>
       <t>1.</t>
@@ -216,74 +216,383 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我们用阿里云的yum源吧：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv /etc/yum.repos.d/CentOS-Base.repo /etc/yum.repos.d/CentOS-Base.repo.backup</t>
+  </si>
+  <si>
+    <t>wget -O /etc/yum.repos.d/CentOS-Base.repo http://mirrors.aliyun.com/repo/Centos-7.repo</t>
+  </si>
+  <si>
+    <t>然后执行安装：yum install php70w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum install php70w-* --skip-broken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之前，我们可以执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> yum update </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先更新所有东西</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.php70w-mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被跳过了，这个怎么处理呢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql5.6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm -Uvh http://dev.mysql.com/get/mysql-community-release-el7-5.noarch.rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum -y install mysql-community-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装完之后的密码更新：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>update user set password=password('crg'),host='%' where user='root' and host='localhost.localdomain';</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>centos7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下关闭防火墙不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iptables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了，而是：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl stop firewalld.service</t>
+  </si>
+  <si>
+    <t>关闭防火墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl stop firewalld.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看防火墙状态：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">systemctl status firewalld </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rm -f /var/run/yum.pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我们用阿里云的yum源吧：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mv /etc/yum.repos.d/CentOS-Base.repo /etc/yum.repos.d/CentOS-Base.repo.backup</t>
-  </si>
-  <si>
-    <t>wget -O /etc/yum.repos.d/CentOS-Base.repo http://mirrors.aliyun.com/repo/Centos-7.repo</t>
-  </si>
-  <si>
-    <t>然后执行安装：yum install php70w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yum install php70w-* --skip-broken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>之前，我们可以执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> yum update </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先更新所有东西</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.php70w-mysql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被跳过了，这个怎么处理呢</t>
-    </r>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>server.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的代码里边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ip-127.0.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该成该服务器的真是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>192.168.1.222</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后的执行时这样的：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cd /data/web/userauth/public</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假设我们将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>server.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部署在了目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/data/web/userauth/public</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且用以上语句执行的话，只要启动窗口关了，监听任务就结束了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,139 +607,99 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mysql5.6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpm -Uvh http://dev.mysql.com/get/mysql-community-release-el7-5.noarch.rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yum -y install mysql-community-server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装完之后的密码更新：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>update user set password=password('crg'),host='%' where user='root' and host='localhost.localdomain';</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>centos7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下关闭防火墙不是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>iptables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>了，而是：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemctl stop firewalld.service</t>
-  </si>
-  <si>
-    <t>关闭防火墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemctl stop firewalld.service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看防火墙状态：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">systemctl status firewalld </t>
-    </r>
+      <t>查询进程，例如查询是不是有某个文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>server.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在运行，可以用命令：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps aux|grep server.php</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps -ef|grep server.php</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后杀死进程用命令：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> kill -s 9 XXX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面加个&amp;号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/bin/php  server.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以改成这样的执行语句：/usr/bin/php  server.php &amp;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +1094,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -840,17 +1109,17 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -875,40 +1144,40 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -920,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -935,27 +1204,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -967,13 +1251,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="命令" sheetId="2" r:id="rId2"/>
     <sheet name="swoole" sheetId="3" r:id="rId3"/>
+    <sheet name="redis" sheetId="4" r:id="rId4"/>
+    <sheet name="mongo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
   <si>
     <r>
       <t>1.</t>
@@ -700,6 +702,987 @@
   </si>
   <si>
     <t>可以改成这样的执行语句：/usr/bin/php  server.php &amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. wget http://download.redis.io/releases/redis-3.2.5.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. cd /usr/src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. tar xzf redis-3.2.5.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. cd redis-3.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. make</t>
+  </si>
+  <si>
+    <t>2. make install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /data/redis/log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /data/redis/pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /data/redis/db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir -p /etc/redis/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cp /usr/src/redis-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>/redis.conf /etc/redis/redis.conf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln -s /etc/redis/redis.conf /etc/redis.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim /etc/redis.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daemonize yes</t>
+  </si>
+  <si>
+    <t>port 6379</t>
+  </si>
+  <si>
+    <t>tcp-backlog 511</t>
+  </si>
+  <si>
+    <t>timeout 30</t>
+  </si>
+  <si>
+    <t>tcp-keepalive 0</t>
+  </si>
+  <si>
+    <t>loglevel notice</t>
+  </si>
+  <si>
+    <t>databases 16</t>
+  </si>
+  <si>
+    <t>save 900 1</t>
+  </si>
+  <si>
+    <t>save 300 10</t>
+  </si>
+  <si>
+    <t>save 60 10000</t>
+  </si>
+  <si>
+    <t>stop-writes-on-bgsave-error yes</t>
+  </si>
+  <si>
+    <t>rdbcompression yes</t>
+  </si>
+  <si>
+    <t>rdbchecksum yes</t>
+  </si>
+  <si>
+    <t>dbfilename "dump.rdb"</t>
+  </si>
+  <si>
+    <t>slave-serve-stale-data yes</t>
+  </si>
+  <si>
+    <t>slave-read-only yes</t>
+  </si>
+  <si>
+    <t>repl-diskless-sync no</t>
+  </si>
+  <si>
+    <t>repl-diskless-sync-delay 5</t>
+  </si>
+  <si>
+    <t>repl-disable-tcp-nodelay no</t>
+  </si>
+  <si>
+    <t>slave-priority 100</t>
+  </si>
+  <si>
+    <t>rename-command CONFIG ""</t>
+  </si>
+  <si>
+    <t>rename-command FLUSHALL ""</t>
+  </si>
+  <si>
+    <t>rename-command FLUSHDB ""</t>
+  </si>
+  <si>
+    <t>rename-command KEYS ""</t>
+  </si>
+  <si>
+    <t>maxmemory 1G</t>
+  </si>
+  <si>
+    <t>appendonly yes</t>
+  </si>
+  <si>
+    <t>appendfilename "appendonly.aof"</t>
+  </si>
+  <si>
+    <t>appendfsync everysec</t>
+  </si>
+  <si>
+    <t>no-appendfsync-on-rewrite no</t>
+  </si>
+  <si>
+    <t>auto-aof-rewrite-percentage 100</t>
+  </si>
+  <si>
+    <t>auto-aof-rewrite-min-size 64mb</t>
+  </si>
+  <si>
+    <t>aof-load-truncated yes</t>
+  </si>
+  <si>
+    <t>lua-time-limit 5000</t>
+  </si>
+  <si>
+    <t>slowlog-log-slower-than 10000</t>
+  </si>
+  <si>
+    <t>slowlog-max-len 128</t>
+  </si>
+  <si>
+    <t>latency-monitor-threshold 0</t>
+  </si>
+  <si>
+    <t>notify-keyspace-events ""</t>
+  </si>
+  <si>
+    <t>hash-max-ziplist-entries 512</t>
+  </si>
+  <si>
+    <t>hash-max-ziplist-value 64</t>
+  </si>
+  <si>
+    <t>list-max-ziplist-entries 512</t>
+  </si>
+  <si>
+    <t>list-max-ziplist-value 64</t>
+  </si>
+  <si>
+    <t>set-max-intset-entries 512</t>
+  </si>
+  <si>
+    <t>zset-max-ziplist-entries 128</t>
+  </si>
+  <si>
+    <t>zset-max-ziplist-value 64</t>
+  </si>
+  <si>
+    <t>hll-sparse-max-bytes 3000</t>
+  </si>
+  <si>
+    <t>activerehashing yes</t>
+  </si>
+  <si>
+    <t>client-output-buffer-limit normal 0 0 0</t>
+  </si>
+  <si>
+    <t>client-output-buffer-limit slave 256mb 64mb 60</t>
+  </si>
+  <si>
+    <t>client-output-buffer-limit pubsub 32mb 8mb 60</t>
+  </si>
+  <si>
+    <t>hz 10</t>
+  </si>
+  <si>
+    <t>aof-rewrite-incremental-fsync yes</t>
+  </si>
+  <si>
+    <t>pidfile "/data/redis/pid/redis.pid"</t>
+  </si>
+  <si>
+    <t>logfile "/data/redis/log/redis.log"</t>
+  </si>
+  <si>
+    <t>dir "/data/redis/db"</t>
+  </si>
+  <si>
+    <t>requirepass "123456"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动脚本：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#!/bin/sh</t>
+  </si>
+  <si>
+    <t># Description:        Start and Stop redis</t>
+  </si>
+  <si>
+    <t># Provides:        redis</t>
+  </si>
+  <si>
+    <t># Default-Start:    2 3 4 5</t>
+  </si>
+  <si>
+    <t># Default-Stop:        0 1 6</t>
+  </si>
+  <si>
+    <t>PATH=/usr/local/bin:/sbin:/usr/bin:/bin</t>
+  </si>
+  <si>
+    <t>REDISPORT=6379</t>
+  </si>
+  <si>
+    <t>EXEC=/usr/local/bin/redis-server</t>
+  </si>
+  <si>
+    <t>REDIS_CLI=/usr/local/bin/redis-cli</t>
+  </si>
+  <si>
+    <t>CONF="/etc/redis/redis.conf"</t>
+  </si>
+  <si>
+    <t>case "$1" in</t>
+  </si>
+  <si>
+    <t>start)</t>
+  </si>
+  <si>
+    <t>if [ -f $PIDFILE ]</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>echo "$PIDFILE exists, process is already running or crashed"</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>echo "Starting Redis server..."</t>
+  </si>
+  <si>
+    <t>$EXEC $CONF</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if [ "$?"="0" ] </t>
+  </si>
+  <si>
+    <t>echo "Redis is running..."</t>
+  </si>
+  <si>
+    <t>;;</t>
+  </si>
+  <si>
+    <t>stop)</t>
+  </si>
+  <si>
+    <t>if [ ! -f $PIDFILE ]</t>
+  </si>
+  <si>
+    <t>echo "$PIDFILE does not exist, process is not running"</t>
+  </si>
+  <si>
+    <t>PID=$(cat $PIDFILE)</t>
+  </si>
+  <si>
+    <t>echo "Stopping Redis server..."</t>
+  </si>
+  <si>
+    <t>$REDIS_CLI -p $REDISPORT SHUTDOWN</t>
+  </si>
+  <si>
+    <t>while [ -x ${PIDFILE} ]</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>echo "Waiting for Redis to shutdown ..."</t>
+  </si>
+  <si>
+    <t>sleep 1</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>echo "Redis is stopped"</t>
+  </si>
+  <si>
+    <t>restart|reload)</t>
+  </si>
+  <si>
+    <t>${0} stop</t>
+  </si>
+  <si>
+    <t>${0} start</t>
+  </si>
+  <si>
+    <t>*)</t>
+  </si>
+  <si>
+    <t>echo "Usage: /etc/init.d/redis {start|stop|restart|reload}" &gt;&amp;2</t>
+  </si>
+  <si>
+    <t>exit 1</t>
+  </si>
+  <si>
+    <t>esac</t>
+  </si>
+  <si>
+    <t>vim /etc/init.d/redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加redis系统服务：</t>
+  </si>
+  <si>
+    <t>chmod a+x /etc/init.d/redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkconfig --add redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chkconfig --level </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2345</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> redis on</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service redis start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps -aux | grep redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">netstat -anptu | grep </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>6379</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIDFILE=/data/redis/pid/redis.pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind 192.168.1.222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis-cli -h 127.0.0.1 -p 6379 -a 123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后我们修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址吧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后重启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>redis,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:service redis reload </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ect/redis/redis.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bind 127.0.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改成实际的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ip,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>192.168.1.222</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们重新测试：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis-cli -h 192.168.1.222 -p 6379 -a 123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现竟然不通，还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>127.0.0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是通的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这时我们可以，将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/data/redis/pid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件改名，然后重启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>redis,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>让系统生成新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，之后测试就好了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原因是虽然改了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>redis.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但还在运行旧的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件，新改的配置并没有加载进来，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkconfig --list | grep redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># chkconfig:        2345 10 90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别注意红色部分的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是这块目前不好用，开机自启动不了，这块稍后处理下</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置开机启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. wget http://fastdl.mongodb.org/linux/mongodb-linux-x86_64-2.6.4.tgz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. tar -zxvf mongodb-linux-x86_64-2.6.4.tgz -C /usr/src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. cd mongodb-linux-x86_64-2.6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. mkdir log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. mkdir db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ./bin/mongod --dbpath=./db --logpath=./log/mongodb.log --fork --auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，搞定，然后可以参看下端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>netstat -nalupt | grep mongo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后在外网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> telnet 192.168.1.222 27017 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常，表示服务已经在启动了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动就采用该命令来启动：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. echo "/usr/src/mongodb-linux-x86_64-2.6.4/bin/mongod --dbpath=/usr/src/mongodb-linux-x86_64-2.6.4/db --logpath=/usr/src/mongodb-linux-x86_64-2.6.4/log/mongodb.log --fork --auth" &gt;&gt; /etc/rc.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t>local</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/src/mongodb-linux-x86_64-2.6.4/bin/mongod --dbpath=/usr/src/mongodb-linux-x86_64-2.6.4/db --logpath=/usr/src/mongodb-linux-x86_64-2.6.4/log/mongodb.log --fork --auth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +1690,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +1718,114 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF800080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -756,10 +1847,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1253,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1302,4 +2408,960 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C158"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="10" customFormat="1">
+      <c r="A23" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" s="10" customFormat="1">
+      <c r="A84" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" s="10" customFormat="1">
+      <c r="A85" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" s="10" customFormat="1">
+      <c r="A86" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" s="10" customFormat="1">
+      <c r="A87" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="10" customFormat="1">
+      <c r="A88" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" s="10" customFormat="1">
+      <c r="A89" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
   <si>
     <r>
       <t>1.</t>
@@ -1682,7 +1682,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后还需要执行：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chmod +x /etc/rc.d/rc.local </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，让这个文件有执行权限，然后才可以开机启动哦</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样开机启动运行了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意如果不执行的话，需要： chmod +x /etc/rc.d/rc.local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后采用这样的方式了，在：/etc/rc.d/rc.local文件里边加上下面一句话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/bin/redis-server /etc/redis/redis.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意以上的启动语句，如果我们在测试环境的话，可以不需要认证，那么启动语句就变成：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/usr/src/mongodb-linux-x86_64-2.6.4/bin/mongod --dbpath=/usr/src/mongodb-linux-x86_64-2.6.4/db --logpath=/usr/src/mongodb-linux-x86_64-2.6.4/log/mongodb.log --fork --auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际中我们第一次启动肯定不能用认证，所以先不用认证启动之后，然后切换到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库（默认有的），执行以下语句：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; db.createUser({user:"crg",pwd:"123",roles:[{role:"userAdminAnyDatabase",db:"admin"}]})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这样，我们就有了一个用户了，这之后我们就可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上面的认证方式来启动数据库了：再改回去：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/src/mongodb-linux-x86_64-2.6.4/bin/mongod --dbpath=/usr/src/mongodb-linux-x86_64-2.6.4/db --logpath=/usr/src/mongodb-linux-x86_64-2.6.4/log/mongodb.log --fork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/src/mongodb-linux-x86_64-2.6.4/bin/mongod --dbpath=/usr/src/mongodb-linux-x86_64-2.6.4/db --logpath=/usr/src/mongodb-linux-x86_64-2.6.4/log/mongodb.log --fork --auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后我们再用客户端或者是程序链接的数据库的时候，就需要输入用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>crg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>123456</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>about to fork child process, waiting until server is ready for connections.</t>
+  </si>
+  <si>
+    <t>forked process: 17684</t>
+  </si>
+  <si>
+    <t>all output going to: /var/log/mongo/mongod.log</t>
+  </si>
+  <si>
+    <t>ERROR: child process failed, exited with error number 100</t>
+  </si>
+  <si>
+    <t>启动错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有正常关闭mongod服务,导致mongod被锁. 删除掉mongod里的mongod.lock 文件. 重新启动服务就行了.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要注意的是，如果以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--auth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模式下启动，那么客户端就不能操作查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的信息了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意在给账号赋权限时，注意角色的选择，可以多选的，不然很容易，造成该账号没有权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1690,7 +1954,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1826,13 +2090,38 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF008800"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1847,7 +2136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1866,6 +2155,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2412,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C158"/>
+  <dimension ref="A2:F163"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3011,32 +3308,32 @@
         <v>145</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:6">
       <c r="A130" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:6">
       <c r="A131" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:6">
       <c r="A132" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:6">
       <c r="A133" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:6">
       <c r="A135" s="7" t="s">
         <v>151</v>
       </c>
@@ -3044,93 +3341,129 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:6">
       <c r="A137" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:6">
       <c r="A138" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:6">
       <c r="A139" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:6">
       <c r="A140" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="6" t="s">
-        <v>156</v>
+    <row r="141" spans="1:6">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="6" t="s">
-        <v>157</v>
+      <c r="A145" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="6" t="s">
-        <v>158</v>
-      </c>
+      <c r="A146" s="8"/>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="5" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="5" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3143,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3321,7 +3654,9 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9"/>
+      <c r="A15" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3331,37 +3666,134 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="13" t="s">
-        <v>182</v>
-      </c>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>186</v>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="swoole" sheetId="3" r:id="rId3"/>
     <sheet name="redis" sheetId="4" r:id="rId4"/>
     <sheet name="mongo" sheetId="5" r:id="rId5"/>
+    <sheet name="activeMQ" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="286">
   <si>
     <r>
       <t>1.</t>
@@ -311,14 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rpm -Uvh http://dev.mysql.com/get/mysql-community-release-el7-5.noarch.rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yum -y install mysql-community-server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -406,33 +399,6 @@
   </si>
   <si>
     <t>systemctl stop firewalld.service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看防火墙状态：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">systemctl status firewalld </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rm -f /var/run/yum.pid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1947,6 +1913,784 @@
   </si>
   <si>
     <t>注意在给账号赋权限时，注意角色的选择，可以多选的，不然很容易，造成该账号没有权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum -y install mysql-community-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm -Uvh http://dev.mysql.com/get/mysql-community-release-el7-5.noarch.rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm -f /var/run/yum.pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql5.7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先卸载：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yum remove mysql</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           rm -f /etc/my.cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wget http://dev.mysql.com/get/mysql57-community-release-el7-9.noarch.rpm</t>
+  </si>
+  <si>
+    <t>rpm -qa|grep mysql</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询出来如果有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的话，采用以下命令卸载：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm -e mysql-community-release-el7-5.noarch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意去掉后缀名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.rpm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum localinstall mysql57-community-release-el7-9.noarch.rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后采用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> yum repolist enabled | grep "mysql.*-community.*"    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询是否已经安装了正确的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>源，如些截图表示没问题：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后直接采用以下语句安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql57:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum install mysql-community-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dev.mysql.com/downloads/repo/yum/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以直接到官网下载最新的yum源版本：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装成功之后：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动MySQL服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> systemctl start mysqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看MySQL的启动状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell&gt; systemctl status mysqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">开机启动
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认密码：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER USER 'root'@'localhost' IDENTIFIED BY 'Q1w2e3r4r5!';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加远程登录用户：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRANT ALL PRIVILEGES ON *.* TO 'crg'@'%' IDENTIFIED BY 'Crg123456!' WITH GRANT OPTION;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看防火墙状态：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">systemctl status firewalld </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm -rf /var/lib/mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果这个目录如果不删除，再重新安装之后，密码还是之前的密码，不会重新初始化！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CentOS7</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ActiveMQ</t>
+    </r>
+  </si>
+  <si>
+    <t>1、下载activemq，下载地址：http://archive.apache.org/dist/activemq。测试版本为apache-activemq-5.14.1。</t>
+  </si>
+  <si>
+    <t>2、在/ursr/local/目录下新建activemq文件夹，并进入该文件夹，执行如下命令解压文件。</t>
+  </si>
+  <si>
+    <t>cd /ursr/local</t>
+  </si>
+  <si>
+    <t>mkdir activemq</t>
+  </si>
+  <si>
+    <t>tar -xzvf apache-activemq-5.14.1-bin.tar.gz</t>
+  </si>
+  <si>
+    <t>3、在/etc/init.d/目录增加增加activemq文件，文件内容为：</t>
+  </si>
+  <si>
+    <t>cd /etc/init.d/</t>
+  </si>
+  <si>
+    <t>vi activemq</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># /etc/init.d/activemq</t>
+  </si>
+  <si>
+    <t># chkconfig: 345 63 37</t>
+  </si>
+  <si>
+    <t># description: activemq servlet container.</t>
+  </si>
+  <si>
+    <t># processname: activemq 5.14.1</t>
+  </si>
+  <si>
+    <t># Source function library.</t>
+  </si>
+  <si>
+    <t>#. /etc/init.d/functions</t>
+  </si>
+  <si>
+    <t># source networking configuration.</t>
+  </si>
+  <si>
+    <t>#. /etc/sysconfig/network</t>
+  </si>
+  <si>
+    <t>#export JAVA_HOME=/</t>
+  </si>
+  <si>
+    <t>export CATALINA_HOME=/usr/local/activemq/apache-activemq-5.14.1</t>
+  </si>
+  <si>
+    <r>
+      <t>case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$1 in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>start)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sh $CATALINA_HOME/bin/activemq start</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stop)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sh $CATALINA_HOME/bin/activemq stop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>restart)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sleep 1</t>
+    </r>
+  </si>
+  <si>
+    <t>exit 0</t>
+  </si>
+  <si>
+    <t>4、对activemq文件授予权限。</t>
+  </si>
+  <si>
+    <t>chmod 777 activemq</t>
+  </si>
+  <si>
+    <t>5、设置开机启动并启动activemq</t>
+  </si>
+  <si>
+    <t>chkconfig activemq on</t>
+  </si>
+  <si>
+    <t>service activemq start</t>
+  </si>
+  <si>
+    <t>5、访问地址：http://IP地址:8161/。</t>
+  </si>
+  <si>
+    <t>访问成功，ActiveMQ安装完毕。默认用户名密码为：admin/admin。</t>
+  </si>
+  <si>
+    <t>6、其他</t>
+  </si>
+  <si>
+    <t>　　查看activemq状态</t>
+  </si>
+  <si>
+    <t>service activemq status</t>
+  </si>
+  <si>
+    <t>　　其他和关闭activemq服务</t>
+  </si>
+  <si>
+    <t>service activemq stop</t>
+  </si>
+  <si>
+    <t> 　　设置开机启动或不启动activemq服务</t>
+  </si>
+  <si>
+    <t>chkconfig activemq off</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>activemq</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>需要预先安装</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>JDK</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，请查看</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>JDK</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>安装</t>
+    </r>
+  </si>
+  <si>
+    <t>systemctl enable mysqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+systemctl daemon-reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装完成之后，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/var/log/mysqld.log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成了一个默认密码。通过下面的方式找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认密码，然后登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进行修改：
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> grep 'temporary password' /var/log/mysqld.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查到随机生成的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> mysql -uroot -pXXXXX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录进去，之后必须执行以下语句进行密码的修改，其他语句都执行不了</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1954,7 +2698,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2109,6 +2853,56 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFAFAFAF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2124,7 +2918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2132,11 +2926,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2163,13 +2998,215 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8562975"/>
+          <a:ext cx="6781800" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8362950"/>
+          <a:ext cx="6629400" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAxUAAAB2CAIAAAAx9yk0AAAbd0lEQVR4nO2d4bGkKhCFzcl0DMZcjMVQjGP3x4wK3aehAfWqc756VW+vI9A0CEdA6DrIMC3LsizLNODfD6Ef55NTIDmGaZnHfv9jWZbgAiGEEELuyCrUKKT+hkg/EUIIIYSQLNRPhBBCCCGEEEIIIYQQQgghj+CS9eOafpy/q6GOm1TCcfbjfMm81XU56rrjF4Af6KWnThT248yleYQQQpyc0NsV9MVn9LUiziOUwb1yVGFVlsv00/4ZQfA5gf/iEVylqAkhhLyYq/TTPpQSdoPUTw1xAqvWS8NUaMTfjD9ZNcV5sRLqJ0IIIc2A3q4f53kc17f/z6+b/BHSRFyUYwZfqdSP83bPMAUKSqcOEwrUVxgUz20h/bTmJvgBJRSIvNDckjGQC3IU5UxO633lU8ZOlbr2Uj/O8zwvy7JM0xQblawM0+TWTzBf/ovx78h1KpuJ+ilLN05y92g8p+rwUoFDCCGEPAasn0A/9Ok+gtvhxe8PRmj1p0wdxxn9e5RdkVy3oq1Z+8XgTpRQFFE/TpGuqh1/OiFH0Co922V32iB17aXgf/PYQzdZlcEnF+B6I//FfKSWk43SBF4PpS3O8ujyEvUTIYS8DkM/Rd2V6JSUGBHjHbJ/Wn/9vpDPs6mfsgl5spCOcx9Ogwnhjq5eP52RI9OqfpynIWttVqJ8ktunApcoUk9l8DjrFPlkFLGKz6Ofglod1uD9ln6c52lyeYn6iRBC3oY1f9cbF8L+CQ6nqPBBR7xODCX0Uzqh2Cg81FIaZ3i/8cFbk346PEeWVd+/c8Zm1xdl9VNJZbA4bu7ua750ne0Gr37aZFMkE8UY31zgJUIIIe/BqZ8axp+kfgrvrh6tSYgwp4IxjIeRXDH+5M8RsKpk9s5K3a+f2sefjh18yg4x2nlNp/TJX7T2SYR0eon6iRBC3oZHP5Wvf4ILSYK39/Vneat7tVAQUK4vEXHikQC8/mlb8qTjqFmAc1KOUM66zc3ZteNW6k79dMT6p4Pn7gzXJdY/Ge5Ul4dpmabQoVFVH6ZpdHmJ+okQQl6HSz8F2kf263CsYxsOgfoK3hoqKjiBJpRXkIb6vimKMztVF48zSYWHc5Ti9BwFUQR37T24Q+mp1Av0U6YyOD43O3bu7nsfch1wsrh9iP7UNw8T8Hpwn8NL/P6OEELeCOyZj6bfv+4ihzAcvP84OQ/O3xFCCKlnf8mnkCK/BPUTIYQQQkgZ1E+EEEIIIYQQQgghhBBCCCnikvXjGmOjyhPiLNi76YTUz4rznuvHC/Z5uIobmkQIIeQFnLA4o363yUNI7J9Zy71yVGHVD/AUbzTa+ZRsEkLI27lKP+GtlaifGuIEVu3bEf1cJ/sUYUH9RAghr8DaP3Ocopkj5/6Zxk6EfXAy7zDFW0aCrc711FRqt0kZA9JPa27QXpl4/0zrZJSSvb1PylGUMzmtF+7maAGyGV+WR9dElSG2Rm0uHycMd7D0TnUaDlFxJmqdTBobL03qx3me52X5bH4Zpe/eFdNfl+xsxp4vrYqEEEJOBOsn0GMVnd9ihFZ/ytTdp510KAyMM9i7M7gTn98SRBQc5tI0/nRCjqBV/hPwjGzCkkWVIVJn6uRD0/Atm0ZCKawqI05lMZwEDxOK/i1NGj+BVtlvHPuT0k9VdSm2FXg+HZwQQsiFGPpJHVlRf36wHKKYZ1M/ZRPyZCEd5z6cBhPCfVO9fjojR6ZV37NbMtbCbKquOyVx9uIWA11aAGQOtPM6Fhacitijn4Dx2qRpwqeypKS/Tra8LkVx4qxSPxFCyD3wnH+nD0ezLqLwwRFh89gnO6FsQrFReKilNE54KB6YSqnVT4fnyLLq+7fDWJ3NKG0xCaZjW5WHnCd0iCMzoaSZm6V25rz6SRuvTZpnUz8ZdT5pfaYuGeWOM0T9RAgh98CpnxrGn6R+Cu+uHq1JiDCngjGMh5FcMf7kzxGwyj97Z1hr5hD/8MmK8pxv/MnpyuzAoStiEEAaDxVN4/iTSC9Rl8w4qZ8IIeTOePQTXsSDV/Z0ustSS4z3MQd5K44TLHkJAsqVKCJOPGaAEgqWqeg4vKt1L8gRylm3uTmzdtzMZlSIwxSUEOqvh2mZJpUSKHm9VslICGUPOSSx/slwEpx/jIyXJo2GfopLMz1/561LZrmb+okLxwkh5Aa49FOgfWS/Dsc6tuEQqK/grdF6ZTTpIWd79jTUl1BRnNmpunhswJhVEjlKcXqOgiiCu/a+PmuikU142RrvGKboNjkApjIvJYTHnYZDYJwdqnXQJG28MskafwpuLPn+LlOX7GzanvdVRUIIIacBe+aj6fdv4MghDLfcf/yX8M/fEUIIIfXswwEUUuT5UD8RQgghhJRB/UQIIYQQQgghhBBCCCGEEGIhZ1Le84m3sQXj7eLMJviO4rjH5ksv8ucZpMqIriOEHEO87/K2t6X4LP37AXf0KbjetrG4VcpuU1QU1em9WnLf68PbZBHnGRlMxFmbo/eri2tzeAt/7ohGIGWaubFJ12V3zsoFz20/e6DXDq5LNytPQkgzsZAZ4uPmA/1UsmF2cbJN/Kl+ukLbXKufqlO7Q/9wbl34df1UZg4MMEzb6YKV6cEijnbGPchrR9elm5UnIaQZpZ/maQp3RLb0kzqro6xtsPQTevfch7nQ7p3hroNbaGHZOKnw7o0Qk/kLsmFs1Bm8tqtjZVazlFxSG0OCDeF1wNSenDIGs3MYxMbcKLhKyNirEhSHSDg6RSVIqh/neZ7X8lnEvtxmweWMD72erWA6m1Zdck+KPs2fIUfop2FapsEZUWLne3TcUvQY6iIuaBlwQqqIcXCrOOwMEUIei9ZPY781Agn9pM9o2+7wbJeJ9RM+7QT8nDpJQym71Rhf8AKiFhHqp8iW4FCPj1koXdzrGBnMnAnToTA4Tjt1FTxxgooRJTzOJ/q3PBdo/ATqx3mZx946eEdkIW98UBlyFcw6Y0fXJWW8Y1z1Ef7U6UpBl8ujKh+5nXtJcN/FVBF7WgacEChiuzLo4iCEvBKkn7bWA69/moZONU6H6CerHZLmpScPdSup7mybe1TWrAlh/ZQVJHac8Br0Urbj1uUF7HLM6tkJOfv7oGTXf+mxzHWOR56gkiq4QuP9FQxmxbjTO8jwAH+mrc8rA2F/mGatfsrM3X2DmUXsaBmycW6GmRJYFQch5KVA/bRerht/Kk/2S34KbFl0G5zVT1DWmMFrs2DFied2CmcnrKAwRwHAdTBOI/WM51Varv5+SyYSfzHzbPb3VsGVGu+vYDCHkQCKkTNoeq7s/v4ExncozQSx/dHMYqV+ys3dyWAVLYMVpy5iM7gqDkLISzH00+df47Xrn7IjK3XjT7jPaxx/QrMTaU0m+yfn7ETD+FMim8BClKPccIvDehAgEucwpB4AzRRcufH+CgZzmFOu2EGP8WeOUv00iBVd+Unz5AOWvMs//mRqx8KUY9fJ4iCEvBRLP60vXZZ+iqam9HB31fxdkBBaoREu0YjuLH/LTAT3ATqbSHtuveO25CkvOK0OTLofeUn8e5S9o8wmHMXQnS4KDhIyojQvD9MyTWKtd9jXTqPR31sF5zQ+qJm5Cmb4E6Uojbdq/oP8qRmmWCGIibDMaHLqujO4Y+5OxKZ+9OknlBAo4szw1UT5RMiLiUelP8+/HIhO6Kf1hnDKIog4r5/grAeaN9jujT4RWu8MLspIU80cCF6AOXym4gy8bE0zpOKMPbD+jmdX9qS2eLDrUJzW3AgKDhIStw/Rn/rmrWoB48PJEdXf44LzGt9nvr/LZDM/25Wp90/xZ9p4mFR0JbZUuCSvn1Bwz9zdFrsq4oKWwXgMVRGnxpt1cRBCyPuoGGcvnq38ozifknoddTNoj8vmZVROZF9CyXT38QkRQgjZ2CbW7txrkBQVJcfeMQGfBEIIIQ7WAXn2GQ+F+ulYqJ8IIYQQQgghhBBCCCGEEFKGvU9OW6R3mbJImdKa9xtlkxBCCHk4xv4F4Ye3++fO0de/wae+nq+2EWDHlBd/7msLmE0aHahxTpGaOg1KMkIIIb+L2j9zibclTO6fWb+HN/VT13ViF8eDBMkl64CpnwghhPw0ev/xaQq3Sbb0U3477VyySD8FI11ge0GR3neXPLX1uWczwG3sTFihEkdHM+A7E1juCZxvbO1YkHcd54nZpH4ihBDy06DzW7bONKGfEgNIzv3HdfAoneDokzVSeGRE8EPxqSyJIybgIVp6mKxlrixKvejcCZD3VI7+NpuEEELI+0D6CRz3IA8/OE0/WapHawg1eVg+o+iYVwuzhmYZ62fL4pCWlpG/pbOJrfnTbBJCCCEvBOqn9XLd+JMzWRh8l2rgXNDM2Z+pE6kwQlhEOjGa21olozqAzj2FpxAeSxnvO/dUx3mHbBJCCCFvxNBPn3+NV69/Mm9w6qeW8Sc7eCQmqxJKpwziTI8/mafYYlP+LpuEEELIO7H00zr2kPz+LtjIQK55zo1GRUG2acNtyZNK0qMh2tY/BSnI4MO0TFM8LGPc6UTLkaL1T1A/2RLnz7JJCCGEvA5j/6dI1ST003qD+Dqsc+qnOH0wYRSuZo74WgR1g//7u/V2+GGaCi72xUrc6QLMs+Hv7wrynphB/atsEkIIIeRR+NZj/c1X+GekmoyTmw0QQgghxGSbAHQu1/mRVT0/kk1CCCGE1LFO4GX0AtpW8oX8SDYJIYQQQgghhBBCCCGEEELI4/jbA0jufvyJuWtpZTxyt854a/oHTSnigstmM49rSVpltTnTyXevyQdxg2wma8ipz9GTPze5QcFdxsHLWh/dUP8Bxv4F4Qfs+PyW8JP54Lv6lvTj3aNaiuzJD/8pFDik9YF0b0L/7AXtpXvtG3Gc7YFnO/ki7ttceIrvgCJ+6s5ulxXcfRNylH6r8WxDcqj9M0M1kzi/pXV3arXlZrAFFPXTgVynn/zvfo9+LA95xaV+ugf3bS4u0U/DNE/TXT2Q5L6y5rKEqJ9ugN5/fJrCbaevOb9lu6h2i4wuyxNdth0nl2UeeyP4Ns4lzB31x2mF22968KcejMcFe8CDTTWje4H1wHG+UUJjV3SZOvCSGKGUVzOHJxo5Ag4xON512PiibKKE3BWsoNJa1Jcmvnj8c5Qqo/jRhsYXF3Ftc2HE6a+foAU7pAlqKeLu27xHTbfzg90fKTir/YROthwFPK9MKmqo2+KEnam/ofbX+R8Bnd8iThGG+ilxgJ1n//F+nI0SSEgxpdlAFEZwEHQ/sFid93b0oLYjdTH7PO1Njz7URZyyA24Yq+ZD7TMHrRRVM40XC2UfSxA/dAjkNNd53hysqyih0grmqbQ29aWZsPPQ58goI/RoI+NLiripuWisnzDeQ5qgpge2/4z5aw/kW4xfKjiVEG43jKDA80Y2nQ31YXGqNsTRUFfV+XeD9NPmdrz+aRo65dlS/fQNg7WwWY2iRM1+zKef1NwjvHgMztRRIxHeiTrPb37tHrVeP2VTTz1dyavJgEGOfIaf5rp6/ZRNqGL9eGnw6tJMJXTocwRN0qk4jU8UMYxT3mBZ1lw/Q9JeuqyIg4zX6qdfKTiZkJn3pC2wiOPIXQ31gXGmH214T12dfzVQP62X68afiomKBT7PC1BauG54nyv91gMvJm12D2M6Uo/yqRo5YWc8MrtMQ+JBadJPRV5q0k9osFk7xOIc17Xpp2RCdfqpKHh1aaYSOvQ5Mu9URVJkPKxLjc1FW/0ELdgBTVDLA7u315X66TcKDiTUWL3NbLr1U1ucRmfauRrqrsx1v4Chnz7/Gk9b/2RbkdH7p+qny8af0k+gZdL28OsguFM3b8f84fhT2kR/cRzquib9lE7oT/TTGeNPLc+R+SqPumH/MAZO8aDmAlKUzYyGuGT8aRCLYwq/gP6RgoNxmHlP2gLLPZ3QGXH6H218j++nX8LST6vQtPRT1weDRrEv+3HOzt/1+wd3cVQqseDvQc7f4+cKpe3pivZ7hrPXP6Gmc9IeCDwZujhy9zCBG+L1T96hQdv1ol5gL/n1k7oGcgQdYph9kuvq9RNOqLSCtemn+tJM2Nn2HImWwSgj67VZ3llSxE3NRXP9BC3YIU1Q4wO7/pwff/rNgsP3QCdngg54rVKYTWdD3Ran2Zka6Ytrha57N3006re9l4TlkNJP6w3ReOEecd634TuQ7Eyjq/vf8osDWHtFcPmq9c0QfGpXlxz3/V1B6kF5RE1H+kMV2appdyp/OswNDFCvp6aXQNul8m4lZOQe1g/NCa6zjfdmEyXkrWAlldamvjTBxSOeI90NJz7j0v28ML64iGubCyNOf/0ELdhBTVDTA2v4xaWffqPgUEKGkyHY81b6voa6LU7UmRY01IWuI79JemD2Mqym4ybcxEuQm7vuhsDSbCzi7ARHSxmxiEvxlWberyy4Uu7cVBJyCNvw5F3mdm/Z0NzOS5Bbuu6GwNJsLGJvcHbDl1BamvnbWHA+ntFUEnIQ6/DkTSr7TRuam3kJclPX3RBYmo1F7AvObvginKW5ztV4pqVYcC6e0FQSQgghhBBCCCGEEEKIF/vTSDWNjIZHo+D79wJPH0F9xRT6GcVxeRG/6NPdW8ykvMifZ/OARuCGpVnQoRwS6xWpX8ENi/JGGPsXhB8mDvD8lnDXiWu/ZZQVzv1Vw/1qanHPdXAW7PTPeGpEnGcURyLO2hy9X11cm8Nb+HNHNGuZle72TfmtmjIfvMMihhcr9nvM8uinoxGwh6Q3Twe0Ya4ohElGpQ0uwz0N1P4YutM29p54fBmfi9o/M3T2YO8/Hl28Sp4MejsZ6qeD079C21yrn6pTu0PrcW7N/XX9VKw0dIBhmqfJFVFiIyMULSr3E/TTo5+OVur10xEbElTqJ1gHI9E0DZ/Y493w+q7r922r+3F25P0NhXwqSj/N0xTuUWrpp/haXVOkt1Db1LHekHOJtvzCMhwH72BN9U/77HdGW7HuGdDpRxLUviRiRSYV7qfnJtGYo41/8T6f6sGWDlFxqtj20CAg8DzwpxUnSt0IrhIyyghVsDjhPbW4NPtxnud5LUl3EeeMN54jbzajQsOvuelK9zR/hhyhn4ZpmQZnRMZtjn23UI78DYv5yKiEHlyarR1KEIunSug3+QNStzOW0U8ogLgxlFh7HsTe5HWK/afR+mnsN58l9JPwaxhN79h/PLgHLmoSjce+xWx+/MlhrdIDCWvDoMHhHv04y/YoHafOlS0AtnvtvEM8ns9FELVcWj9F2Qj280cOAXGK2IKwujIYnldhcJx26iq4lZARFqQcyjuVkX6cl2n8BFrf+vafU0WcNz71HDmyGQQ37vSO8T7CnzpdKQFyeVTl820fq/WT42ImR9mGxbozcfPzSvOQDsWNzOR1qWcr7TrspPSTvNunjLzP/6+C9NPme7z+aR0dbNVPwQOq9Hk0tGXNE1brJ5WCWZHM6qN+yMYZ2yBvgMETeTetbanttomRfso2uXac8BqsDNkHV9fAotcnrAhlljw9RFCB13/p0lznePZHSqfun+aExlsDGYlswtT9T4c/oVRUl/kzbX3+wbGGAhr0k2PuLpujdMOSSu3RT4edbHWH4ibVep+f+kpYabc+OhSr8a+y6H09BWxVyArUT+vluvEnD7Bv3n8z2u8j9RMcgU7amf7BiDO6nNFPKnjKSyeQGNANU99Nhb1JMk4dm5VQonlG/jS7FvXCLYPbHY63h9iSicRfzDybPYRVxKXGi5d6TzZNiQyfju2HPaLn+BMY36E0E8T27wHq9ZP1dDgeQ2/Dkn5knvt0JKyp7lDcyExem/oOqD/BqFbYUI9TbIQ35exr7I9j6KfPv8Yz1z/97fhTa/VB+gn2T4bxQD+VBD+BZI7yL77Z/tkKWDL+lHAIsBBq3Mxwi8N6ECB63YAh1yvuN+xy46HrsuNPbuWKHfQYf+Yo1U+DWAPkWkfpazLKyz3zYnZQBcsYqmPptshOL81DOhQ/nhbsvNRDM7L6e002FN5Fj8XZr+2PxtJPq3i19FNUDHrAOdcWBfeoEhLJ7X8O1euf1LUo0WFKWBveGa9/Ai+TMs4gXWE8fE1TJtl5h3g8bwEelEhNb+3ptuQpL6Gthw+8voHKADxv+zPnUHlPGNwoYqvvMAT6NImluFFpjkYPYRWx03j4HPmzaUhk79PxIH9qohW1QzSdYTxHlrBEksURPP9Oskcnc+RvWKw7H/10dMrJh3QoBcT95mWpw0obXdz75b2w9tpdJp5K3qV+jj4aRf26PK7XKf203hAO8AcR5/UT+GBBvtPt7yufP8UHC9IuI3j023YtyL5H68kbzfEicetmk/raYv8lZZKVd9vSOv0E32Q2g8LUDcdhQWkZI4tji1R3RHFKtj9lnNa7GQoOi7hTZZSoYNvDAoxfpn0qVvUQuIi9xuPnyJ1NQz/5n46n+DNtPExKvm9hO6UX/cHdYwdmDUGe73TDAu989NMBnHxIh1KCHsu7JnVYaaO+HFxVlQaWp4by6aawYG7FGcXxt0X8xAo2RKrIZfwTs3kZd557sN6/rjH4idUmO393cY7Ct/cn+jOPNW5C/px3VjhCGqjo7/kcJbizfiKl3E0/3Sd18nOwwhEioH46FuqnN0H9RAghhBBCCCGP4h/6jxBCCCEFqM/SrkF/GXBWnFeNrF6Xo67biq0mKeonQgghpJUTlggUKJYzFijonc2ak7hXjiqsCqF+IoQQQlq5Sj/h/WSonxriBFbt26jYRlA/EUIIIa3g7W63vcCibY7B1Ji4mNgwLNzBK9wMEeyBq6emUvsoyhiQflpzI7ZpNa/Vbzh2QY6inMlpvXAXOgz1EyGEENKKcVyA7uzV5vTw4vcHI7T6U6aO47QOEIDRA2vCvesDRZc49aLrgmNKmsafTsgRtErqPHtxFPUTIYQQ0kryuCVwYRvagBfX2+VxAtN6ltuyLPNs6qdsQp4spOPch9NgQlhz1OunM3JkWtWPszz8AED9RAghhLRizd/1xgV4xEQciQgfHG00j31y/CmbUGwUHmopjTO83/jgrUk/HZ4jy6rv3zljqZ8IIYSQVpz6qWH8Seqn8O7q0ZqECHMqGMN4GMkV40/+HAGr/LN31E+EEEJIOx79VL7+SS7fCefvwjXT8lb3aqEg4DDpVe2GmkNrncJr25KnxJKtDBfkCOWs29ycXDveddRPhBBCSDsu/eT+/m6PNNRJqW/65f6d5V+rTZOMPoozO1WHv78TGkTkKMXpOQqiCO766qbvGqgE1E+EEEJIK5fsPx58A0cOgfuPE0IIIb/AvkSHQupPoX4ihBBCCCmD+okQQgghhBBCCCGEEEIIIYQQQgghhBBCCCGEEEIIIYQQQgghhBBCCCGEEEIIIYQQQgghhBBCCCGEEEIIIYT8IP8B2ZAwPjRbLRAAAAAASUVORK5CYII="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15220950"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAABVYAAAHoCAIAAAAt1CNTAAAgAElEQVR4nOzde3QUdZ43/pLjHjNn9dA7Z864efQ5Y2aefX6TPePPfezf2bOyPjsS9/kNvzZcEoSV5jLjDJTiLrrSEIU4gk4jXloYXHWsXZBbx0GGRiA2otIawnRAKQhkko5BLNICHRKSVEigWwdn+vfHh3z5pqq6+tuXXCDv1+njwU7Vty5JoD/v+l6kOgAAAAAAAAAYBaThPgEAAAAAAAAAGAp5iwAaGho0TWtra+vq6urp6enr64sDpNbT03Pu3Lm2tjZN0xoaGvL1cwgAAAAAAACp5BoB1NfXa5rW1dU13BUlXN36+vqi0aiqqnn5sQYAAAAAAACznCKA5uZmPO2H/Pr888/z9cMNAAAAAAAAvOwjgDNnzgx3tQjXpnPnzuXxRxwAAAAAAABIlhGApmnDXSfCtaytrS2/P+gAAAAAAACQTQTw+eefD3eFCNe+5ubmvP+4AwAAAAAAjGYZRwCffPJJT0/PcJeHcO3r6+sbjJ94AAAAAACAUSvjCABdAGDIaJo2GD/0AAAAAAAA9qQUhvIcvvOd76xZs8b8/po1a77zne9k12bGF2DTBUBVVFVWVEWNx+Pbtm1bvnz5tm3bampqli9frihKPB5XFEWWZZ/P19raOnR15GHv7ZJ767V5tKvbxYsX7TfIuiNAaWlpaWlpdvsCAAAAAABYVvtDHAFQqW9IASzfFJfZBdTX16eq1jo7O2WnLEtO2Sl3dnZOmzbt+uuvLykpkWX5+uuvdzqdfr//xhtvLC4uvvHGG2VZtin8trol6Xbv4SzrSpNcivLD3tulzHbO/Ghb3ZLV9W51SwMPvdV9JXnK4+0ZbLNmzbL8sVFVdcaMGWkXlayvr8/ixxoRAAAAAAAAZMfm+f8QRwB1poI/x/q/LtMIwGYUQGNjo+x0ypJTdjobGxspAvj+979/1113UQSwfPny66+//t///d+/+93v3nXXXamLvq1u6fbb8/goPYcI4LD39ttvvz1twb3VnUtNbnm9l4/c/6YhD8g8mRg+Bw4cmDVr1pEjR/g3qf4/dOhQ2t2zGwuACAAAAAAAALJj8/x/6COAOq7sz73+r8s0Amhra0tVqtXU1MiSU3HKsuSsqamZNm3ajTfe+N1+hgjA6XSmrPm2uiX31nx2p8++rcPe22/3Hk5f4OceAXi9A5s47L39dq/Xffm8ra5gq/uqCQGMKYB4/R+Px8+dO5fFjzUiAAAAAACAq0uqZ+9DPwJ/pEUAdXV1a9asGTt27NixY3Os/+syjQBsJwJQZMmpyLIsOVVFmTZt2q233nrrrbd+97vfLS4uFo4A+qvdw17+4Tu9y3rCc8Xyld7xhmfkV9407Hxluyv7Whfw/ZW9qdrmd9x65WDS7d7D/RdgPn/6P8O5XTnMgBhhq1tyb73831QZRm65w1A7ePAgpQBU/6uqKrhjdtMBIAIAAAAAAIDsIAK4zL5sU2RFlpz0UmRl2rRpNAqA/is6EOBKtTughqbCme8VT3/e6h5YR8et+sjzOw+oxQc0b1djD8gALGYq4Ktx1hb3Jv8e3w59/fIfBl66e2s8TQRw1c07+Mknn8yaNSuj+p+oqpr2h7NUQA6/JgAAAAAAMFqMtAhg2AYCNDQ02NRpNASAggBFlidOnFhcXDxt2rS77rqL/rxt27Zbb731+9///q233rp8+XLLRvi63/hnrtw1lu+mR/6mRtlbfC+DAUxP1Pm6n/uz1cN3ywjgyk58sT/QgC/3XzC/+TXTCyDe3/9/5syZhw9ndtqff/552h9ORAAAAAAAAJAXqSKAoR+SUDe80wHazAUYj8drampURTl+/LiqKKqi+P1+RVF27969e/fubdu2+f3+zs7Ompoa6hfg8/ms2jCVyJLhufiV7fqfm/eXwXxpLxoB2D1DN0UE0sBn9sbztupRcPmPVx79W1ftA3ob8LMCbL1W5gKI99f/qqp+8sknmaYAWcwIiJofAAAAAACyY9MLYIgN86KANnMBxuPx1tbW48eP7969W3XKSfaSDS9FlWVFcW7bts2iCVMXe1bm8sX+le4BA5/Nc5te2dJrrPbZ/wwYaHBlQAG32YAK+8rmA3oHeE2xAH+0w97bB072z+972OvmCv8rlzag78E1sCJAnKv/6X8PHTrkdrvFU4AspgNABAAAAAAAANkxPZgenuf/dXV1qUp9SgGya1P0Mj755BP7Jdw7Ozu3bdsmy7IsXXkpppcqO1XFqaqKuQWL59r9hfdh7+2S28sezPMl9uV3vFzlbZg20DoC4LczVdMDJ/Mznt5h04lcbmngkP7+Lwxo6Mq+XP5gHSAMmDnA1C/hqhkEYDn/H6UA4pMCiEwHwEMEAAAAAAAAYCYaATQ1NaWt0zo7O/1+v+o0lP1OlV5OWXHKqqL88VxzpmXkVTf13aC7HAhcBUFAqvn/VFWdOXOmYCMi0wHwEAEAAAAAAACYiUYA0WhUsFpLqmpSkZOyrLKXotTU1Bw/fly0ajRBBDDKtbW1ZfRjjQgAAAAAAADATDQC6OnpGcYKEBHAKJfFdAAAAAAAAABgIBQB2K8FADAEslgXAAAAAAAAAHjpIwBVVe0nAgQYGvX19UPwKwEAAAAAAHCtSh8B2K8FCDBkurq6huBXAgAAAAAA4FqVJgLAEAAYUTAcAAAAAAAAIGt2EYCmacNd8QEYIQUAAAAAAADIjnUE0NDQ0NXVNdy1HoC1rq6u5ubmIf5VAQAAAAAAuNpdiQA++eSThoYGTdNQ/MNVoaurKxqNNjQ0DOPvDwAAAAAAwFVEGu46DgAAAAAAAGBUOH/+/PCeACIAAAAAAAAAgKHQ3d09vCeACAAAAAAAAABgKHR0dAzvCWQWAfT19Z07dy4ajUYikcbGxvr6+vr6+sbGxpaWFk3Tzp07N0hnCQAAAAAAAHC1a2trG94TEI0A+vr6NE2rr6+PRCLRaLSzs1PX9QsXLly4cEHX9Y6OjtOnT0ciEVVVsZQgAAAAAAAAgNnp06eH9wTSRwB9fX3RaPTYsWMnT57UdT1h68KFC5qmqara3Nx8BgAAAACuUZZ9WTs6Oob7vACGX3t7+yAUbnCNiEajw3sCaSKAvr6+lpaWSCSStvjn9fb2trS0NDU1ffPNN0kAAAAAuOacOXPG/NHxzJkzw31eAMPP8rcDgAx7r3m7CKC7u5se/l+4cEG8/mei0Wh9ff3FixeH+3cQAAAAAPIMEQBAKogAwMYXX3wxvCeQMgLo6+trbGxsa2vLovhnOjs76+vr0RcAAAAA4BqDCAAgFUQAYGOERgDU///kyZO51P/k9OnTTU1Ng/Tb1dvbO0gtAwAAAFylhuYDEiIAgFQQAYCNERoBRKPRlpaW7Pr/m7W0tJw+fXowfrtaWloGo1kAAACAq9fQfEBCBACQCiIAsDESI4C+vr5jx44Jzv/33nvvffDBB/bbXLhwob6+/uuvv877b1djY2Pe2wQAAAC4qg3NByREAACp5BgBvPjiiy+99JL49uFwWHzjDRs2bNiwIfOTgrwZiRFANBoVHAKwdu3a0tLS0tLS3/3ud/ZbRqNRTdPS/racPXv2wIED1dXVgUDgwIEDsVjMfntEAAAAAHAt+b7/yF9vUNO+fvhWvU0jIzYCaG1tra6uXrdu3bp166qrq1tbW4fgPAGGXi4RQGNjI1VYzc3NgruIRwAbNmygxgc7BaioqCjlVFRUDOrhLly48Prrr7/++usXLlzIb8v79u1zu92lAtxu9759+0TaFI8A1q1bN2XKFJGjT5kyZd26dYLNWkQAx44d6+3tFa//S0tLy8rK4vF42o4ANr8nFy9e3LVr1/79+zs6Or766quvvvqqo6OjtrZ2165d8Xg81V6IAAAAAOBacu/Opv/z4dIp+x7iX48cm/9Y4/xFnz3y5PFHKk88Itcvm/BuxKaRHD8ghUIhkc0yjQA+/fRTRVEURamqqtq4cSP9+dNPP83lVAFGplwigF/96ldUYf3qV78S3EUwAmD1/xCkAOYadfCOpes6u2nPPvusrut5bHzGjBkiFTiZPXu2SJviEYBg/U/uv/9+wWaNEcC5c+caGxszqv9LS0sDgUDaXSKRSHd3t+UvycWLF99+++1z586Zv3Tu3LnNmzenWlnQ9l+4xhfuuOOFgV/fMVvqN3uH5dsD3hdpMplsfOGO/p25L1q/a7ZjNndIbqcrUu4+YFf760hx4cJbmA6VZhfLGwUAAADpzAl9/uP3nrOMAH4envFvR35WeeKRGQdfkmu+sGlEMALo6urasWOHz+dbvny5z+fbsWNHd3d3KBRavny5yO4ZRQCtra2Kovj9/ra2Nnqnra2tqqpKURSxvgBdda9XiFhdc9a8c0/DlhUrtjT1iVyWnUs9pw5VKy8/81RFRUXF0qdf3Hgwdin9XmdrVluflrn9pi1Ll25p6m+z7+SeV5Y+s1boIDCyZB0BtLS0TJw4sby8vKysbOLEiS0tLSJ72UQA4XB41qxZ9qXjrFmzMhpKIMJ8lPy2z5w9e3bhwoWTJk3avn37O++8M2nSpIULF549ezZf7YtX4OKXORi9ACZPnpx9L4BoNBqNRjOq/9OOAiCnT5/+4gvrf66qq6u7urrY/77//vvV1dXsfzs7O7ds2WK5Y8p/4S5XpwPK0MYX7mBv7Jgt8X9mFeyO2SmLZKsmBzZq2Pjy240v3JGiyf6CP3XqsGN2BrumvA7+DPgLNzSXYosUZ5ny1FLcKAAAABDwzKFTf7/rNXMEUB4sXbK34uc75zyizr7vY2XlYbuJlkUigOPHj69YsWL58uXLly9/9tlnDX8QOdWMIoDq6mpFUc6eHVAIt7e3K4rCf+oTdykWWr06ZF0cx49uWpouKuAqbcEDnjtStWLpU6t+W3PoxBld72g99sHal7Yfv5RMJi9FP3z1xd0nUuzYVfe6YAKQPLFzWcWGI/FkMpm81NPwuxVPrfhdQw/q/6tRdhHA6dOn6Wn2K6+88sorr5SWlj7zzDOnT59Ou6NNAZ+2/iezZs3K4oRtZFcbZ+qLL76YO3fu9OnTf//73//617/+9a9/vX///unTp8+dOzdf4+3Z+U+cOHHixInm6zK8L3jaeTm3rBkjgJaWlo6OjrzX/4lEorOzs7m52fwbcvbs2bq6Ov6dbdu2vf/++/w74XDY8l8Uy3/hGl+4Q5q9w1ScG2rWHbOti1TL0jZFk/3vp2nEssnLx09dSaeMF0R25Q86sBmrRlNvkepQqe5eqhsFAAAw6vT19R1Job6+Pp5inOOmlo7/O+Cfsu+hSR/94v/dMWXyx3On7HtoyrsTF77/2B//9MePToam7PrJPXuqNrV02Bw6bQTQ1dXl9XqXL19eXV19/vx5emfNmjXL+4lcYEYRwJtvvllVVWV+v6qq6s033xQ53AB2AUDyUtOWpZcL6eie5/jq+8TOZcpBPeOjJZOXYrWvPfXM2rrTAye3vnTpUtL07N7wdf2gUvHcnqjIUaJ7nqME4OvTNa89tfSVPSdz7rcAw0Q8Avj4449XrVq1cOHCadOmsce50Wj01KlT7PHvtGnTFi5cuGrVqpqaGstGbCIAauHw4cOHDx9OVaAORok+BBHA0aNHZ8yYMXfu3EOHDi1cuJCOsnDhwkOHDs2dO3fGjBlHjx7N/Sjs/D/77LPPP/989uzZ/EX99Kc//eKLL5qamq7uCKCxsdFmLQBD/W9p0aJFlvummg6grq6uo8Pun7FkMtne3n7gwAHz+3b/whnKUGNValNfC9fkqRIAwxdS1ctpDmdf4qf7OvfVAce/cmrc4/4UW6Q8lN0V9TeBCAAAAEa9M2fOWEYAhofhvJoz5/+vt3dO+ugX91X95DeHXvvnba7/886kebse/Oqbrz471/yTzSWPqLP/7p13w229NsdNGwHs3LmT6n/2DvX/H5YIYN26dSKHS57YuUxsBMCJncuULVues9t42c5Uz+wv+7q79VD12uomeiIfC61e+kqNVeIw4KSWbT9+KRnd81yFsv+zuo3PP1Xx3J5o/MgGiwTAEE2wNyuUg3rf8Z0vLX1m05Fz/OHO1r75Zs3n3flfXgsGh3gEwA81f+CBBxYvXvz222/Tl7Zt21ZRUfHAAw+wDWbOnGnZiEgEcOTIkWspAvj444/Ly8uXLFkSDocNZfns2bN///vfL1mypLy8/OOPP87xQKzZI0eOxONxPgX46U9/evLkyXg8/umnnw5SBDBE0wHazAW4Y8cOkcOXlpZmFAFs3bqVIlTGMBAgmUz+8Y9/9Pv95n0ziACMZax1lZq6136KJu94YceV8fsDm78yEMCmGrbt6m9fRacLKwaGEFfigP63B/T4t9wi1aEoJLgyFYDpPBEBAAAAJJPJP/3pT83NzYb6v6Wl5c9//nOqXaK9X33P//GE6vtX7vcmk8nNxzbM2T5DT3RHe1rvq/rJz2qnV5545H/8tuZUn10xmDYCWLVq1fLly3X98gNxQ/0/MgcCWFbNl53+4IUrZfaJncter+tKJpPJszWr+erbroV+l+JtkZrfrnn66eeV6kOnqBN+10Fl6Qt7olZdDi7Fe/Rjb/+yYm1dh67rPfFLydMfvFCxbMWajTWfd+j6ha/jRzctNecNpz944YUPjEM5ztasrnh5255Nzyx9aedx4+P/vpM1G59/quKpVduPtcUxNGDkE48APv3006lTp5aWlr788suptnnppZdKS0unTp2qqqrlBmkjABGCJyxoUNvftm3bpEmT1qxZs2PHDssKecqUKe+8884rr7wyceLEbdu25XIs1v4DDzzQ1NQU708Bfvazn1H9f/To0enTp9M206ZNE2lzxE0HWF9ff+HCBcsa/q233hI8fKpOBKqqmn9Dtm7d+sc//pF/h2aI5d/JRwQwoOSlAe6WswXalK4WHQsMTfIlNSfz0f7pugDYbmK8joGzDFpdYJotzIMouIuymD8BEQAAAABJJBJ8/X/06NFEImGz/Td/+vN/33R4cs38kq0/+eDEnmQy2fd1X8fFjim/vW/mR1OfPP7Iks//7b9vOvzNn1KGCEmBCODZZ5995plnsrgcXhbTAVZVVbEU4OzZszQdYFNTk8DRLKvmywaU+lcKff2gsvTpFSv7PfOUXYf8r7tbD1Urzz/11Krf1kQGVNlpZvO7/Oye23jphiP9Fbz1GAFDNEG66l6vWLp0aUXFix+mmufh645j21c9VbF0BToEjHgZzQUQDoep0rOcov/NN9+kmraurs6mhVRfoupsCAYCXLx48Wc/+5lIqTh//vwcj8XYHygvh3jooYdYg3wKYK7/S0tLH374YZE2R9x0gDYDAS5evPjyyy+nPbzH47Hcvbe399ixY+bfEFVVDQMBzBFAe3t7bW2ted+MIoABhe7sHYbO7FTW2tetomMLLNKAVOV8ijpeIAFIsY35OsxTA1pGH3ZbWEQAxhUVBpwJIgAAAADm7NmzLAKwXP/I4B8Cf5iwd/F978+8Z/0/HjxVpye6Z2ybNv39KbQo4L/9Yck/bv+DfQtpI4DVq1cvX7481VJNgnJZFHDTpk1Kv40bN/LTQls7W7NarGO/XVSQ2qWmLUsrKn755sEOU2WdZiz/6Q9e4BIA/aBSwR3+0vHty1gCED+ywebE6TBHalZXVCzddDTlgtjJrzubtr8oMJIBhlem0wF+/PHHkyZNKi0tra6u5t+nXtiTJ0+2X3B+hAwECIfDZWVl9qXi/fffn6ovQxbsj5WXQ7zxxht8mzNmzKAUIG6q/0tLS9944w2RNkfcXACRSKSzszPVY3xDCjBp0qQPPvgg1cYGnZ2dlv8gnTlz5ve//z3/jjkC2L9/v/h0gP1fsy9D+RHv1n0C0jaZKgKw7H+Q0YB/kQTAYiPL6zBuZr4vGW+BCAAAAEDcn//8588+++zIkSOff/65zRAAZsYHx+/Z452y7yHX7gdKNvzv8rcnlb83+bHG+RQB/PTQczM+OG7fQtoI4N13312+fPn27dsN7xvGZtrLNAJIJpMnT56srq5et27dunXrqqurm5qaNm7cKJICdNW9nrLo1Q8qy2hmfqq5X687mXIBwZS1/Nfdn9e8uWJpxdIVb9Z8MWAS/rM1qyteDsVSnNjALgLGuICb4d/6fJn+KQPiTVuWVVRYDTv4urv10PY1Ty996nmlGoMBRrwsVgRYtWpVaWlpVVUV/+bmzZtLS0vXrFljv+/IGQhw4MABGtdgadq0aYcPH87LgYj5/PN+RcePH6d0hk8Bjhw58sknnxjq/0mTJh0/flykzREXAWiadvr0aZtKPusUwGZRwEAgwP+9b1gRoLOzMxAIWO6YfQTAJQC2T+ltmzRMnJe3CEAoAbAsxAXihDxEAMbpABEBAAAA2Prqq68aGxu//lqo8/aLR87csX3T/xdaNGXfQ5Nr5k0KPfjIsfkUAfxbwxPj3/e/eMSuzE4KRAC6rq9cuXL58uXvvPNOZ2dnMpk8d+7ctm3bVq1adfx4mnyBySICMOvq6hJIAfSDSsoEIH5kA3vQ3ndkw1P0CP3SiZ3PXFky4FLPFzVrn19V/Zn9CnuX4m2spz2bjF8/qFRUGFcfuPT115f6v3glHzBO/cdm+E91vvyb/Q/2u+per+DHEiQv9Zw6tH3N0089vcY4RAFGriwigKeffrq0tJSmr/vkk08OHToUj8c//PDD0tLSZ555xn7fkTAQgGGzG5jrf1oMJY+GIAKImzoCpCLYBSA+AqcDbG9vb2xstC/mzSnA3r1700YALS0tqf5mTyQSfr/fsmvcuXPn/H7/hQsXLHfMcC4AVqbyNWvKenvAdHnWTfKz7vF/HrAr9wVzk1ZHt3rPYp7CNI/mU+x65RSu/CnVFqnb5rex2B4RAAAAgEFGD9hf+0Pbf9uo/u/dL0zZ99CUfQ9RBDAt/NJ/26i+9oe2tLunjQCSyeQXX3xBKQDv+eefj0aF1q9L5ikCSIqkAJZVc//Xjm7qXwHw0omdK16p7X8ifylW+9rTL+08duLQ9ldXvrr9mLmLfwpfd39e8+ZrH7Db0NdQtayi4pm1Hxxr7dD1jtbmuurf9H+5aUtFxes1Zy9cuPA1nQqfVAwcI3DlfJ8ydfS/1LRl6ZWeDCd2PlNR8czOE5f/t3nHq9sPtWLs/9Uliwhg7ty5paWlwWBw6dKlVGQtXbo0GAyWCowwHyEDAZjDhw+zNQ7J9OnTGxoa8ngIMjQRQG9vL/umpLJ06dLe3l7BBkfcdIDxeLy+vj7VogCpUoCpU6fab3/hwoVjx47Z/OP31Vdfbdu2bf/+/R0dHd98880333zT0dFRW1tbVVWVqv5PZtwLgM3RZ54EYKDZO5JCEUDSML+A1bEk2+raonC3rJ/FIgDL6xh4kgPnKBiYU6ScLzBVUJFqe0QAAAAAOQq39d6+5ej/s1OhCOCfP/jP27cctV8LkBGJAJLJZE9PTzAYXLNmzYoVK9asWfPuu+/29gq1T/IVASS5FMBy9aj40U1L7SYCoASgr2nLissL912K95w5cagm8JsXV7z66qqnlr7krznW2tGT9QP0S+catr+64umlFRUVFU8987JSzfKErk/ffHppRUXFCx+cNk39l2YaQb59fsqAJC1BULFUOZhuggQYuTKNAHp7e/ne5tOnT+c7mU+ZMqWvr89md5sIYNasWSLVY6rlBrNWX1/PUoB/+Zd/aWxszG/7hL+EVO/kRV9f3xtvvGEYEUAmTZr0xhtv2H+DDEbcdIDxePzEiRMnT55M+1SfTwHefPNN+42j0aimaSK/Lfv379+0adOmTZv2798fi6UaeHWZ4L9wAAAAAFed9vgfJ+3+7O+2b7w7uHHS7s/a439Mv08ymRyqD0h5jACSyWRXV9fRo0etvnKpactSU3f6fid2LlMO6snkVyeqX/1dU1/rh6+8+OLKVzdU1xw6ceYC1emX4p2tx2qqN7y68pmnnl53CHU1DIFMI4Djx49TVVVeXv5f//Vf586doyUzy8vL6X1N02x2t4kAwuHwzJkz7avH2bNn27SQtYaGhp///Odz586NRCJ5b5wMWQRANE1bu3btggUL3G632+1esGDB2rVr7b81lkbcXADxeLyvr09V1bQdASgFeOutt7Zu3SrSBeCrr77K+28XIgAAAAC4hn3zpz8v+/TLZZ9++fU3fxLf62qMAACuJZlGACdOnJg+ffqaNWsMO546dWrVqlXTp0/POgKAEWgkRgDxeDwajba0tKSNAASdPHny1KlTg/Hb1dLSMhjNAgAAAFy9huYDEiIAgFSymAsARo8RGgHE4/HGxkb7pQEEnT59uqmp6ZtvvhmM367z588PRrMAAAAAV6+h+YCECAAgFUQAYGPkRgB9fX3Hjh1ra2vLpf7v6OhoaGgYjCEAAAAAADCMEAEApIIIAGyM3AggHo93d3fX19dn3Rfg9OnTDQ0N3d3dw/07CAAAAAB5hggAIBVEAGBjREcA8Xi8r6+vsbGxpaVFZHZA5sKFCydPnmxqavr6a6xhCgAAAHANQgQAkAoiALCRxSIC+ZUmAiCnT59WVVVkpcALFy5omnb06NGWlpZTp06dAQAAAIBrUUdHh/lD49mzZ4f7vACGn+VvBwCJRqPDewJCEUA8Hu/r6ztx4oSqqi0tLdFotLOzk/oFXLhwobe3V9f106dPNzY2Hjt2rKWl5fz584N60gAAAAAAAABXndOnTw/vCYhGAEx7e7umaZFI5NixY6qq1tfXHzt2jAYLnDt3rq+vbzDOEgAAAAAAAOBq19bWNrwnkHEEAAAAAAAAAABZGPZxIogAAAAAAAAAAIZCd3f38J4AIgAAAAAAAACAoTDsE+dJtQAAAAAAAAAwCkjDvWomAAAAAAAAAAwFRAAAAAAAAAAAowIiAAAAAAAAAIBRAREAAAAAAAAAwKiACAAAAAAAAABgVEAEAAAAAAAAADAqIAIAAAAAAAAAGBUQAQAAAAAAAL9BDMoAACAASURBVACMCogAAAAAAAAAAEYFRAAAAAAAAAAAowIiAAAAAAAAAIBRAREAAAAAAAAAwKiACAAAAAAAAABgVEAEAAAAAAAAADAqIAIAAAAAAAAAGBUQAQAAAAAAAACMCogAAAAAAAAAAEYFRAAAAAAAAAAAowIiAAAAAAAAAIBRAREAAAAAAAAAwKiACAAAAAAAAABgVEAEAAAAAAAAADAqIAIAAAAAAAAAGBUQAQAAAAAAAACMCogAAAAAAAAAAEYFRAAAAAAAAAAAowIiAAAAAAAAAIBRAREAAAAAAAAAwKiACAAAAAAAAABgVEAEAAAAAAAAADAqjIgIINHvKwAAAAAAAIBrSIIz3MX3MEUAiYH0fj0AAAAAAAAA1xCdY6iFh74YH+oIwFz2xwAAAAAAAABGB3McMJQl+ZBGAKz4ZxevcSKRSAsAAAAAAADANSQSiUQiEb745eOAIU4BhigC4J/8s8o/EomoAAAAAAAAAKMJSwRYp4AhCwKGLgLgH/7ruj40xwUAAAAAAAAYIWKxGHsWTkEA3x1gCE5gKCIAvv4fCVMgAgAAAAAAAAwXXdf379/PgoChTAEGPQLgx/8P9rEAAAAAAAAArgqhUIiCAEoBhmY4wFBEAFT/4/k/AAAAAAAAAInFYsFgkFIANi/A1R0BoAsAAAAAAAAAgKX9+/cHg0E2L8AQdAQY9AgAXQAAAAAAAAAAzDRNCwQCoVBoyDoCDFEEMKhHAQAAAAAAALjqJBKJqqoq1hHgGokANE0b1KMAAAAAAAAAXI0URQkEAmxGgKs+AojFYogAAAAAAAAAAMwoAuDHAlzFEQCNAkAEAAAAAAAAAGCmKEpVVZVhOoDBO9wgRgBsIgBEAAAAAAAAAABmlhHA4HUEGMQI4Pz5819++aWqqu+///7gHQUAAAAAAADgKqUoyqZNm9577z1VVVtaWmKxWE9Pz1dffTVIh0MEAAAAAAAAADA8EAEAAAAAAAAAjAqIAAAAAAAAAABGBUQAAAAAAAAAAKMCIgAAAAAAAACAUQERAAAAAAAAAMCogAgAAAAAAAAAYFRABAAAAAAAAAAwKiACAAAAAAAAABgVEAEAAAAAAAAAjAqIAAAArOm6HgqFFEWp5AQCgVAopOv6cJ8dAAAAAEDGEAHAILqo9zZ/dCjr15f1LcN9BfkhfskX9d7hPtn8o0I6C5qmmVvTNC271sSLdk3TFi9e7HQ6JVtOp3Px4sWqqub1bgEAAAAADCJEADCImj86JEvOrF++H88b7ivID/FLbv7o0HCfbP6FQiH7WjqVyspKc2uVlZXZtRYKhdKeqqqq48ePz7Rlp9OpKMog3DkAAAAAgDxDBACDaO/qqlwiAFlyDvcV5AcigOyK9vHjx5tbKysry661tBFA1uECO1v0CAAAAACAEQ4RAAyiXcuUHCOAa6NjPCKA7Ipqp9MiA8riKT2xjwDcbnd2zfLGjh2L7gAAAAAAMJIhAoBB5PvxvBwjgBFSEjd/dGjXMkXk1XnyjHn3q+568yvrCECSLP7GyLopmwggL/U/gxQAAAAAAEYsRAAwiHKPAMLrdw33RSSTmXRnsKzhEQFkXU6bZwTMuqlUEYCiKFm3mQpGBAAAAADAyIQIAAZRjvW/LDl3LRsRD1QRAeQilwjAULfnsSmi6/rYsWOzbjMVyyEMAAAAAADDDhEADJaLem/uEcAIWRQAEUAucqnbfT4f31QgEMi6KcsIIL9DAHgYDgAAAAAAIxAiABgsOa4ISK9n75gx3NeRTOYcAYxyuUQAhnUBc5m03xwBZNQFYOzYsePHjxffHh0BAAAAQFwsFtN1fbjPAkYFRAAwWOrf+Tj3CEDOeV3AzpNnmj86xF7ZLTEwaiOAL+tbcr97uUQAhnUBFy9enHVT5ghAfBaA2267jf5VVlVV/IiYEQAAAGCU0zQt7eeBeCKRTCZjsdiQnBEAIgAYNLmvCEgvyzn27dW/8/FbC1589o4Zqdr0/XjermXKl/Uteb8WywiAr6LtX1RjGwpvy5flbcl6R+ai3htev0uRly35XqnN3XtrwYvidy+XCMDwLD3rFQElqwhAfBQA3xlB/BwMoxgAAABgtOnubne73W632yYIUFU1nkioqhoIBFgQQJ0CmtZvbzkQQgcByC9EADBYFHlZXiKAjJ6rh9fvsqldLatZm/ZZDwLxa9m7uooV26ydTC9W5HCKvMx8wiJLMKRaZKHz5BlFXrbgprvFz3bJ90pFlmzIJQKQBq4LeNttt2XdjjkCEC/m+YH94j0RFi9enPbmAAAAwDXP4/FIklRSUmI5M9GnfziuaVogEFAUhSKApvXb90lzq6+bUytNe1ea0Cy51ZsnfP7Eus+fWNe0fjv6C0COEAHAYBEpR0UKzr2rq0QO92V9S0bFvyEIsOzinmNHBtZOphGAyHEtJ0oUP4TB3tVVGRX//OvZO2bY9wjIMQLg1wXMpR3zP7rZ7Ss+H4FhFAMAAACMWqFQqLi4WJKkcePGBYNB/kt+v19RlEVLX1YUJRwOxxOJHdL8Kqmc6n9VkvdJcykIaJAm0h/2/M2c3d5X6599u3V9KBaL0VACAEGIAGCwiBTkIjHBWwteTHus8PpdudTqsuRccNPd5jp2uCIAkWkULCdKFDmEOezIS38Nm+4AOUYArPzWNC0v7TDZ7YsIAAAAALKg6zr7FFFcXOzz+ah7v6ZpPp9v0dKXFy19WVXVSCSyXnp0pTR1s/TgZulBqv9VSaZEoEV6uFZy1Ur3tEtl2piJtdI96s0TWpz/Grx/UcuBEMYLjFgjKqZBBDDSJUbSj0tGROrG/5jqSbtN2nUBc6//U6UAwxUBfFnfklH7RHAVRsNe+RqvYZMC5BgBsBH1+YoSSEaBQnYRwNixY+1/dAEAAGBUiScSoVCopKSEPio4HA6PxxMKhVRV9fl8Ho8nGAxGIpEnr5fppUiyIk3eLD2oSnKVVE7/rZWmtUgPN0tuigY6pZm10j0UCjRIE0OPrujubh/uC7XT3d3u9Xotx0Rcq0pKSoqLi51Op9PpHAnjOBABjGiJRCK7OdiHXefJMyJF465lStrOAku+V2pzoHytOyD3pwD8DR+uCEBwF8OtEFmF0ZCn7F1dlce7J0tOyxEBOZbubCo+n8+XSzuGf2kyOqvsIgBJGsS/8QAAAOAqFYvFFEVxOp30aaGgoMDpdLrdbpfLpWmapmnzb/qlLMmyJD93w2MLr3NTdwDqF1AllbdID7NEQJXkndLUndLUFunhBmlirXRPgzRRu7Osdtb00KMrWteHIpHIMF6p0+ksKChwOByFhYUFBQUFBQWBQCASiRQUFHg8nqyb9fl8hRyXy5XHcx4MDoeDfTjkh7gOF0QAI9rVGwGIlKOy5Ny7ukpkLECqo1zUe7MewZ7qxU+zN4wRgMgwCsOofpF7/h9Tr/xtOxh3z3J4Qo4RAOtOn1HtbYYIAAAAAEaIeCIRi8X8fn95eTn72FBQUCDLss/nm3fjovk3/XLxX62cd+OieTcueu6Gx568Xqb/0tCAKqmc/rBPmkv1P40XaJfK2qWyWumeWmkaDROIzry/bfO80BOP0awBQ3yZqqqqqlpSUlJQUODz+djaBwUFBZWVlZFIJBQacFaapgWDwbQdBFh6woyEutpGYWHhiDpVRABpxFpP9XR05bHBjFy9owAEHy83f3RIJAJINduc+BCAJd8r9f14nmDFy5bNG8YIQOS2GCIAkQ4Ru5YpWdy9Z++YIXI+9DIPB8gxAmDrApaVleXSDiIAAAAAGDlisRg98/f7/W63m39Q7JDGOiXnvBsXub81g7IAWZLn3biof2iAvPA6tyLJrGsAhQI0QKBWcrEZBNulsnrp3lrJRXHAb/9pUvTAxpYDIU3ThnKwgCzLDoeDzVOgqqokSUVFRTQ/YnFxMY2T9/l8DoejqKjI4XA4nc5U8xpQgmD4xJVLn4IhgAhgsAxSBEC/mbQa52AX5Bf1Xv4QiX6DetBBIlg8f1nf8taCFzOtdRmRqQRkrve74Bh7tgbBMEYAIofm63nBXfj6/Nk7ZmR0NwR7dvAdDUiOEQArpFOt4Td27FiRRhABAAAAwMgRi8XYLIBut3vcuHEul8vlcjmkKx9sCsfcctcN4yf/RRn1C5h/0y+f+PaSJ6+X2R8oC1CkyTRTYJVUXn3dHOoaQCsI1ErT9klza6V7tDETm34wJTzepd48oVa6p/qH40NPPPZZ8wcUBwzqZHWyLBcUFLDSlyIAt9udTCbdbrckSZFIJBaLSZLkcrl0Xaexn/ySzDzLT2LFxcWCJ0OjMCorK1O1H08kwuEwbUP8fn/axCQWiwUCAdqeLe7I8BEARRv03aeN7W9+JBLxer2VlZVerzcYDOblO4UIIA1d1zVNo04skUhk8KbZvKj3UtDA3kkkErquG6KHIUgi8kKwOE9mVesygnU1v6ygyNNs8wSE4lmAZVqRRQQg0o0iiwiAtS84d6A8sAuG4C6G0SuCxfZtt92W6kv0b0aqr6aKBgwQAQAAAMDI8ekfjiuK4vF4Kisr2XIAuxaukSXZ/a0ZTsnJZwG3jSm664bx7m/NoNEBi/9q5eK/Wun+1gxZkuff9MuF17l3SPOpUwAlAmyagOrr5rCZAndKU1VJbpAm1kqu6Mz7D88ur/7h+AZpYqc0s/ZHZe+VuUKPrmhav71p/fbogY3RAxvzlQuYI4CCggKv15tMJj0ejyRJmqaFw2FJkhwOB+sNQRmBGSunWT8Cy096xOl0UpuFhYWqqno8Hr63hdPpNOzl9XodDoe5l4HD4SgpKVFV1XyIYDBYUlJi2Is6MrBLZudcUFBgPo3CwkLDOpEkEAiMGzeOb7agoKCwsJDNk5U1RADpxWKxSCTCUoBYLGao1fPiot5LBT97hyKAno4uet+8QVosRMjvqYoQqbQX3HR3Uqxw5cfnM4IzDhrKcpHD0Ynxhj4CyHRgfzKZFOlPwYpzwUf68sCJGAQ7DtS/8zG/l2CxbVPJ09/Oqb5K+XFaiAAAAABgJIgnEsFgMBAI+Hw+v98fCAQURQkGg6qqVknlO6Wp66VHn7vhsSe+vcT9rRl33TCezwJojAD1C6BEYP5Nv3zuhsdodAAbLEDzBSqSXCWVN0vuWmkaTRmwU5paL92rjZnIVhOol+69PIngmInamInqzRO0O8uiM+8Pj3fV/qgseP+iui07YrFYLgMHLCMAqmNlWZa4XgAlJSWhUCgSiQQCAcuSPhQKsZLY4/EEAgF2Z2RZNm9fVFTENjAX9oQv7CmSuHyruTyCvWMorOwnq/b7/bQZ3wsg1WkYBgh4vV7+q3wLUup8RBAiACF8CsCygK62jjwewtztnwr4rraOWCwWaz2VNnfgd08kEl1tHVo/Kvzoza62jiHoRyBSKNLD9izmsSfiRWymEYBseo499BGAyFN6w23JaGJF8SvK9BCyqXuCYLG9ePHiVF/y+Xw2jQjW5IgAAAAAYIRQVdXv9/v9fupzHggENE2rf/ZtekRPk/zvk+Yqkvx8oVeW5IfHlDklZ+GYW/iPGfwwATaD4MNjynZI81dKU2VJfvJ6maYMXClN3SHN3ylNrZWm0SKC1E3gXWkCzSDQKc2kKQMoHai+bk6z5KZ5BJp+MCX6+KzQ8kf2v+WhqQQynVaQ5gLgIwCHw8EiAHownkwm6dm40+l0uVxOp9Oyoz5FBiQcDuu6zqr0wsJCc63ERwAOh0OWZUVR+EYkSeIXFKisrHS5XH6/PxQKaZpGYQTf14B/As8HEJIklZSUUKDj9XppwsJUEUBxcTEN/eB356/X7/ez991ut6qqsVgsHA6zM2E3LTuIAIRQ8WxOATRNi7Weyn3Sfpr5n57z8+/rus7q/56OrlQH6mrriLWe0jTtjBaljc9oUfqpJTSdAW1zeXaDfJy2DZFCkR5ii1Ty5sfyyUxms8siAjBU8kMfASSTybSTFxqWS0xbn/ORwaBGAIbuCYLFtk1pXVlZafhLlmfzJR4iAAAAABg5dF0PBAJUU9Anjc+fWKeNmVgruWolV6007V1pAo3wXylNXS89+sS3lzzx7SXzblw0+S/KbhtTxH/ecEhjC8fc4pScNFjguRseowECz93wGMUBNGUALSi4U5q6WXqw+ro5VVL5PmkuW01AleRaaRqtNchmE6B5BGslV/zvfhadef9v/2mSIk3eKU0N3r8oemAjm0rA/kppnn/2v9QJghIBqrHZiANN03w+Hz37sbxj7BF6UVERvVlSUsLugzk14CMAvmbma+zCwkL78+c/NLJpqpMDFyYw90HweDzsKvgIgL8VfBjBP9hnpT5/OMOZ5DIcABFABswpANE0Lfch+qyfP2vnot57uQtALEYRgOUh6Gl/JHPstNl4AcN8hFkTfD5Pz4oF+/Obj5JdWX4VRQCZLpeYdh1BvjIXn+GfP4TgXobuCYLFts1m48ePtym8xdvP4qzM+yICAAAAgLwIhULxRIKmHksmk63rQ9Qtv166t0GaSH/ulGbulKbukObT0IAnvr3k+UIv/YGmDDDEAZIkOaSxNHfAwuvcFAcs/quVT14v75Dm75PmUhxASwnskOZTFkAjBShrqL5uDiUCFA1oYyZ2SjPflSY8eb1Mowx2SlOjM++PPj5rz9/MUSW5WXK3OP91CFYcVBSFXSMrgPlifty4cYZd+AggEomw9+OJBPtSQUGB4VNiPJHw+/2Koni9Xo/Hw5f6rCbv7m5nhX1hYaH9vAnm6QAJ/3G0pKSE3ozFYqxrg9PppDMh/OgAtn0WEAFk5qLey2YHNGBFddYtd7V1UB2eTCYTiQRV/tR1n7IAc+NZ1/98EMB3DaB+BDlOHyCyOp3MzdKXXWk9qBFAFjPt5T0CUORlabdn6xeKHIW/qEGNAAzdE8RL9FRz+zudzlTDBGgeF8H2szgr876IAAAAAGAwxBOJ0KMr1JsnUF8AegLfKc2kvvrP3fAYLQTAggDKAp4v9Lq/NYPigMIxtxiGmvMdBKg7ADXy3A2P0YwDiiSvlx5dKU2dd+Oi5254jIr8fdJc6oagSnKL9LAiTaZuBfNuXFQllbdLZXv+Zs5m6cEW6eHq6+aoN0+o/VHZ4dnl1CkgFosN0voCLpeLXVcgEOjubu/ubtc0jZ9sz5BEpIoAkgO7D7Ae+93d7W632zDwnsciAL4XatpqPNWigJYRAB9q2EjbecEGIoCMXdR7qUd9qiCA6vZMq2gaa6D346cA6Ono6unoomYNu+RY/9vkAvzJUO8A8Q4CmT5pF9nYMMOc+FGu3gggoxn+RY7Crwg4qBGAYS/xEt1mRsBUXxo/fjwiAAAAALg2xBOJT3fvjD4+Kzze1fSDKTSZf63kapEepjn/N0sPrpceffJ6+bkbHqOKne8a8Hyhl6YJpMEC/DyChDoIUB+ByX9R5v7WjIXXuam8p7UG5t24SJFkGjXA1/8076AiTW6XynZKUykpUKTJtdI9TT+YQsMEaIkB9eYJLc5/pbkDzmtrzmtrPmv+IPdQQNM0/kIKCwuL+vGpBy00wGQUAei6zg/7LyoqcrlcHo+HnyPQMgLgZxOwlCoCCAaD7H0WAfCdHRwOR1EK6AWQTA5hBED4xQJTZQE9HV3iDdKigFR4U8Efi8Xo4TwtCmCOAC7qvYNR/1smAmw+QsoCKBSg+QvM1yIyNT1fvorMM29eF/CajwBExlOwZERkPEWmowzYXuwluCJA1hGAzdz+qZYMrKysRAQAAAAA1wxd10Oh0M6187re+MXh2eXanWVNP5jS4vzXfdJc6h1A0/hVXzdnnzRXkSbvkOZTx35Fkikm4AcLPDymjKYSNKwyyKNVBm4bU0RrDUz+i7KHx5QpkkyJA9X/i/9qpSLJ9Nh//k2/nH/TL1dKU2lBwXaprF66l7oMaGMm1kv31v6oLPr4rK43ftG2eV5D3cK97/98/1uevZtfPnhgQ9YrCxjm8EulqKiIjxtSRQC6rrMvsakK+dq7vLyctaOqKnufRQD82gSGEftmGUUAwWCQtZzjzP+pIALIHnXdtwkCIv3z8In0CKCCnzZmswBS7c3eMUzm39PRNTQRgCEIYGiEAiUU/IkJlpcZbW+YYS6ZbVkeXr/L9+N5aV/8A/Osj8VkFwF8Wd+SdnsWVYjkBXxeIx4BZPfiL1+8RM+ouib2iwUY2s/irMz7IgIAAACAQUWf/D/dvXPv5pf3v+XpeuMXXW/8Ijrz/naprL9fwD00OuBdaUKz5KZFBCgaaJbcLBegfv70Z+o7MP+mX7q/NYOFAlT5p4oGCgoKCsfcQtEAjSNQpMm0AMGT18tsKYGd0tTq6+bQtIK1kotyAe3Osujjs0JrZ+19/+cNdQs/a5j/WcN8+vPBAxuy6BTAT4bPdwEg/GmHw2G2F/8lfowAv5gfm1mwvLycvcnPHWgZARgaDwQChhOmYpD+nFEEEE8k2PZFRUWWoUk8kTAsIpgRRAC50nWdKmT7HgH2S/HRyP/LA/JjsZ6OLn4gAJXZhgggkUjEWk+x+pwdiH8n7xEAj2YNuDKPANdHIO28dFlEAOZ1AXMsyzMyLBGAyI4ZRQB8yyMzAhCc29+wFyIAAAAAuPbQU0BN0/bt27B388s7186r/VGZdmeZevOEdqmMFgug6fpoJT+KACggaJbctdI0muSPLf5Xfd0cygV2SPNpfkHqLLBSmrpSmkoTCkz+i7L7pP9xn/Q/bhtTVDjmFoc0tqCgwJwRFBQU3DamiLa864bx1NdAkSY3SBO1MRO1O8u63vhFQ93C8y1PJnqWnW95klKAhrqF9GZD3cKWAyHxIMAwJ79ukmpqfb5K93q9oVAoGAzyHfslbuwA3x1VlmU6PU3T+Mb5CID/TOhwOBRFUVU1Foupqur1egsKCtgKBRlFAMlkkj/D4uLiYDDIniirqurz+YqKinw+XzY/VclkEhFAXiT6Z/K0SQFYpwBDZ35zI5FIhMrpno6uy/PzxWK07B+fXbGNU8l7BGDOAszvx1pPxVpPiZSIz94xg12LYIFtuGOjIQJI2/GeJSNpl0g0ZCgjMwLIqCxnf40iAgAAAIBrGHUKiEQi+/ZtaKhb+KH/F9p7D7Vtnkf1du2PyuJ/97PaW+6l7gAUENA8gu9KExqkiZQC1ErTWDcByguqpPLq6+bskOavlx6lpQGevF5+vtD75PXyPmnuZunBeTcuogkCaPmAldJUGibglJyUEVBMQEmB1D/1oMPhcDqdM+/+23Hjxj362D96H/n79d772jbPC62dpb330PmWJ7X3HtLee+hD/y/2v+X5rPkDkTvAF+eWpa+qqqzzfGFhISuYDR0EzPiS3vAsqri4eNy4cWxyfvP2yWRy3Lhxhgb5ap91Dcg0AkgOXHGQmnU6nfxUBYgAkslhjQAIq8nTBgFU4VuOou/p6OIfqrPRAewPrBcArVA4LCzrf/alQx/9XqREzGKNesMdGw0RQNpCnd3GtGdoGEkxMiMAXddFtuRl1H4WZ2XeFxEAAAAADAvqfRwOhw8e2PBZw/zQ8kfqpXvD413nW5483/Jk0w+mtEtlh2eXn295Mvr4LBqWT8sKUDrQLLkbpImXgwNpmirJ9KUW6eGd0lTqJlAlle+T5lZJ5TSggFKAJ6+XaWrAHdL8J769RJZkWlCQFh2kqQGrr5uz8Dr3w2PK3N+a8bj7zvXe+7yP/L33kb+fefffzrz7bx9338n/lzYIrZ21/y1P2r4A3d3trA53OBypRljz5TF7/M5HAIa1EgoKClwul6GbvcfjMWzmdDr5pfgMEQB1QDDswtoPBoO0GZ8jpIoAxFumxtk1ZgERQJ6JdAfgswBzC7TuIPUXiMVi1AvgcgTQeopFABQWWNbhg/f8X8Teze+IlIiKvIxd8t7VVVmUx6MhAhA5ruCWhgkOR2YEkEwmRbZkbrvttkzbz/SszPsiAgAAAIDhEk8k4omEruuqqoZCobotO0KPrti7+eXz2prQ2lm1kqteuje0dlaiZ1l4/OVlBWm6PvZnGq5fL93bnwXco42Z2CnNpIkGafgA9RTQxkysksppgQBFmkxhQa3kovUCaBuad2CnNJWWLaiVXJQO1M6a/lnDfBoIQKMA6OE/Pf/f+Mb0jW9Mf/Sxf9z4xvS0EwR2d7cr/Qwf53iqqrLN2HQAfASgqmogEJD7pWoqEAi43W6Xy+V2u6nMjicSrGXzmP9kMqlpWmVlpSzLLpeLdvR6vRFu9kG/389a4COPWCzm8/nofZYXGFr2eDys5fLyclmWvV6vZRUpDhFA/rGn9yIpAD3bp4UABozz758agGUBhgiAHwjAWmP/Oxy1/2W/8/5GpETc+fRv2B0TGccuD1zTLjk6IoC03ftZsf0fUz0Z3b0RGwHYrAtoNn78+Ezbz/SszPsiAgAAAICRQNd1SgRo/DlVAbu9r4YeXXHwwIaGuoW1s6bX/qiMFuqrveXeWukeKvjVmydEH59FPQUGpgD3UDrAIgOaZYBWH6CJBihEqJWm0f/yAw1Y3EAhgnrzhNDaWQ11CxM9y9hEAJQFNNQt3PjG9J1r5x08sGFQbxEfAeQyf941BhHAYEkkEoLdAVgBz8/2R30BIv0ZgU0EYKj/I8MdAax7xCtSIm6vfJXdqKYPD4rskt+F+jIyXBGASDjyZX1LUqCkz3SIwXBFAGVlZeIF9uLFizNtP9OzMu+LCAAAAABGJuogwOYO+PQPx1sOhPx+/759Gz7dvbNuy45dC9cE719U+6Oy2h+VhZY/svGN6bU/KmuQJtZK97xX5oo+Puvw7HIaQUApgHrzBO3OsujM+2kEQa10T3Tm/dHHZ4XHX+5K0C6VNf1gSu0t96o3T6ClAWt/VHZ4dvl7Za5a6R4ap0DrAux9/+cf+n9BUwDs3fxyIBBQVTWLpQEykmpRwFEOEcAgSiQS9qsGWnYKYBMBXNR7WV+AM1rUEAHQL3ZkYARgimlC4wAAIABJREFUjgOG3srxc0VKxI/Xv0NrCna1dZzRoiK7GCa0Gw0RwEW9V3CXtCW9YSYF8Qggx1uXzLBEz6jArqyszLT9TM/KvC8iAAAAALhaXF5rPBajruPsz6qqhkKhcDgcDoeDwWD9s2/v9r4aCAQOHtgQWv7Inr+ZUy/dSzHBzrXzQmtnfej/Re2s6Xv+Zs5v/2lSaPkjDXULQ088Vv3D8b/9p0n73/Jo7z209/2fU0f9YDD4WfMHBw9sCAaDoUdXBO9ftNv76r59G/bt20CHi/TPjDYEl48IwBIigEFn7rEvQtM0FuBF+qMBvpuA5UQAlhGATSgwGHnBin+YI1JY7n97Ny0fQJcmsgu/iEBydEQAyWRywU132++yd3WVyGaGZkdsBKAoSqaVOSIAAAAAgIzQCAL+xdYgpCqjbsuOui076H8//cNxVr0Tw+zg7Ckm32Cyvw6ixvn3h0xJSUlRPwwEYBABDBHqERDJJAUw9A4wpGVntKhlSZ9RVa8OwgiCtLUovSp/WLbiH+bQ6+k70yx9Z1mOjpIIIG2tTuMj7LcxdKAQaXa4IoAsKnNEAAAAAAD5RXU7/Vnvl2rjoXmknwVDJAEEEcCQok7vImsHpk0BWAeBtKX7YDzqtyFe7mbx6jx5ht3MrMvytxa86PvxPPtXfqcezCUCUORl9rvQ2gr22xhWBEzmEAFksVdGJXpG6wJm0X6mZ2XeFxEAAAAA5IumaeFwOBAIBIPBSCSSdnp8Sz6fr6RfLsvFjwSpljyLRCIjpIz3er10qyM5jyyQZbmkpMTlclkuBzB4EAEMj+x6BEQiEU3TaCxArPWUSEGeql/AYDz/jwivCJj169DOjyiDTCQSWZflItVvfqcezCUCSHto34/nfVnfktHlCN6EYYkAksLrAo4dOza79jPay7wvIgAAAADIXTgcdrvdhk8ODoejvLw8o4fqJSUlfAtutzuZTJaXl7tcLlmWB+30B0txcbHlZ6qCggKbFQGHksvlsvxsaSMcDtOqfrTKIMOuboiDG0QAw0bX9a62DqrkMwoCaHZAfi+bwj5VbX+VRgD+J1exsUZveXyjIQJIuyjAs3fMSLuNoVOD4E0YrghAcF1AWhEwi/Yz2su8LyIAAAAAyFEoFHI4HPRpoaioyO1285W8+KrvsVisoKBAkqSSkhL2eT7ZX1sWFhYO5kUMCqfTafmZyuFwjJAIgAU34XBYcJdAIEC7eDwDeub6fL7KysrKykpVVQfhTFNCBDD8DF36s5CqjLeJAMxbZvElM8EVAbN+vTZrCR1I0zTxY13VEUDaJ/y0V6bNjuQIQHBdQAq5s2ifaJomspd5X0QAAAAAkKNx48bRRwWfz8ee+Wua5vP5nE6nYeI6GikQCAQMH2a6u9u9Xi+14/V6aTZx2p5ygaKiIvrkTJkCfao35Av0uZp/h5Yz488qGAwGg0EarWCue1ktQ/8bTyTMDbLd06YbLAKgK2JVhqHNeCLB2jTXz4ZTsryueCLBb6OqKrVmeVZssIau6+Xl5XSG7FbEEwlaCoG+TbQZ21fXdZ/PR7u43W66KDaoobu73dzpQ9d1dnUR03ADujp2Q2hL8TwiiQhghEgkEolE4qLeG2s9lV0KYFnt20QAqnAvgIwigNdmLRm8+l+WnCv+YQ471iiJAER2f2vBi/YbGFYEFLwJ5mJe/Fr4XTIt0QVrbFoRMIv2GZG9zPuKRwBsqAIAAAAAjxW6gUDAZjNVVQ39/IuLi1lnclaLkoKCAqfT6ff7qf5nbxYUFJSUlCSTyeLiYofDUVxczOpPj8fjcDgcDgerov1+P71DXdNVVWW9Ffhz4Etll8tFu4TDYVmWi4qKiouLqazVdd3lcvHnU1hY6PV6Re6MzQT+Pp+PX+2voKDA5XLxQUBJSQmdEmskHA4XFhY6HA72HN7n89E2siy73W52kk6nk6+6Y7EY6/kvSRLtQn9mVbe550JhYSE7UGVlJX8HHA5HQUEBfRNlWXY4HIWFhfwRvV5vYWEhv73L5eJjArrhdCfZoQsKCmRZFpwuARHAMEtw36dEIkGhTr4igFQlPb+x+I6pWuP/V3BFwKxfi26ZwI4VWPmfgns1fXiQv+ci1W/9Ox/zuwxvBPDsHWlWTEh7ReY2R3IEwIJSe+yfzBEbAbChCgAAAAA8vnJzu92VlZWhUMhQv0UiEVZt0qRx7DMGFZCVlZWsViwsLBw3bpwsy+FwmG/c6XQ6nU4qR1lkwD7YsEKazRrg8XhoRyqeQ6EQ1ZaKoiiKwlpwOBxs5kLWo4FxOBxUstLAfmrB4/Gww9kMfWcn7/F4FA774Mc+idG8CWz7wsJC1sWAnRKLAOhC+CtlHShYa+zPrKspfz6FhYXl5eUlJSWsnmcRQFFRkdPp9Pl8iqJUVlaypujbpCgKu3CHwzFu3Din00mXw8YUsPyC7j87HDs6S1WSpsSBP3O/3y/y44cIYKhd1HvpkWwikaDpALraOno6umKxmNbPUKvnMQ4wb5DfCKDyh2WDGgHIkpMdS3zeAZpEkLpaJMWqX0MpPrwRQNoTtt/AvCJgMplM23FgGCOAwd6eue2220R2lBABAAAAQF4pimL42FBQUEBPpFnVyupD9jyZ7eV0Xv6sxZ7584/WdV2nN4uLiy0PSqUpq4r5BqloHzduHN8a3wg7K9YZgfVTcLlcHo/H4/HQybCHOqx61zSN6lV2OLNUcwGweQ1Y6sE+nrFwhCULIhEA3zmfVg1kI/bZ6bE7VlRUxJpi18siAMMtCgaDtAG7jX6/3/Ct5G9mQUEBRQBsmKrD4YhEItQyuyGsvKerY10J4okE+6aUl5enurE8RABDjTr867oei8Virac0KzZ1e+5xgOEd+7wg00RgsOt/WXLuf3t3JBLRNO2jql2Cu9RuCcZaT11+xWIrxz2YaSk+vBGA+NEtX+YVATNqM4trMYQOmZbogqP02d+2WUcAgvMOGvZdvHix4F5lZWWWfwkAAAAA+P1+Qyd/wh6ws9pP5bq4s+fJ9GYgEBCPAOKJBL3vcrmS/TUwdd1nDVLjhqf0wWDQ5/O53W6n08kqcHMEYBjnT+9TNwe5H3tknaqfP7tqh8Ph5NCT+WAwSJfAhwisdGcld0YRAD8Wg25FUVER9chgpTV/Q8wRQDKZDIfDiqLIsjxu3Dj2PWLnw86QjWMlhgiAJQU0cIOwGIK+a+zq+LkeWejA72gDEcAwoA7/hrL/jBZloQCV03wiwP6cxywgLfvtzV89+GHtYNf/suR8b91WdjcEdwmu3cLf6kW3TEi7S09HF/8t2/n0b3Kp4cWvznL38HrRsMPyZV4RMKM2+b0u6r0iu+QYASTFuujn0j4Rf57P/30tHhwY/pYHAAAAMFBVNRAI8J3kpf6Ck1XLEW6gOCtuWdFojgC6u9stI4Bkf/lK1aPT6aQO/9T53O/3s89UrLgNh8N8J/aioiJDL/ckVxIbqnq+mKcB8DSCnaSNACxnSWB1O/+4OxwOswMZ7pJIBMB3nqdOECwCMA+dSFpFAOXl5aw/RVFREUtJMu0FwD6a8iMR2DfFHAGYn4chAhihLuq9XW0dsYEs+wLwuto6EolEV1tHJN+dAvIYAby3bmtGlTx/SuJz+617xBuJRCgZERx3sO4RL93GWCzW1daRdvtFt0zoauvQdZ36a+i6HvC8Knh6hkkESI4RQNoJ/+1f5hUBk2ILDdCr8+SZTM/EEDpkUaKn6gPG8H3ss44AWCKbFr+srvjwAfsJfgAAAGB0ou7A5vdZh3aqAKkclQb2AjC8mWkEQI+UaXA+TQ2Y7C9QXS4XVaT8Xuwjmc/no3Nmg9XNEUBk4Nz1rBeAqqrxRELvZz9lnWXfB4b1euCHKpg78LMIgN1nVVWziABYLwB+G/ZtojPkUwm6UhZJmCMA+14A5gf+lm8iArjiqogAqIxnPdLp18AwIuCMFj2jRc31fzKZ1HWd1d58PZ9jEGAu5u2TglRRwu+8oo/KZckZDof5k3ln9XrBHV8pfYwd8ZXSx0R2WXTLBKr/Y7HYx+vTzyDwH1M9hgjmLY9P8PQsH7nnGAFk1IJ4mwtuultkdz7UEJxBwJCDZFGi33333fYb33fffbm0T3RdF9mRKIoSCoXuu+8+we2xHAAAAABYikQiNGO8IQhgtSUVnOwRNKsbWa3LZvVPFQHQZkVFReZD87PHUcu6rvNvsiI5nkjQ+3w7NnMBGCIAWZYN58+aDQaDqYIAFgGYP7nxpyRxGQE7JXYTWCPs0KyQzigCYJcwbtw4eicWixlSGLYNO2GbuQD4p0pJUwQQiURoM4fDYZ7akN1wRABXjPwIgJ7/0xSAll0AYq2naHZAVvlTFkDf3UQiEWs9lao+zy4FsAkFsogAxJ/ky5LTcOjg2i2CO/LrAooHBy//5JHaLcHAyv8UqXvD296n9tkoDPEODgtuunvn079p/uhQ80eH2PNz8dtiWLyAESzXLV/mFQGJIi8TvKLw+l3NHx0SnD5gyfdKDQcSLNH3Bvck+qXtol9ZWck23hvcI9K+5T8k7N+MvMMoAAAAALDE6nAa7u52u8vLy80DyNX+B9eSJJWXl7vdblb9sqHprLY0rLTHamC32x0IBPgqlx9xwD4d8R0wLTtmut1uRVH4D06GilQyRQCxWIx1iS8pKfF6vT6fr7y8nIYDGKbQMx/R8pNbcuCc+bIss9yErWKQHLi8FN8zX7JaEcAmAuATk+Li4pKSEr4pdWAvAFoUgF+mgX0rWTsFBQU+n8/v99O+5hUB2DvFxcU0swC7WMMSDGzZhSQigBEbAdD4/1gs1tPRxacA/EQA9CV6k+IA6rhOLdAogLQRQI5xgE2FnzYCEHwmf7nMDof5jgDbX9skXmPzB82lNrZ8sYiBn5RBfOpB/rW98lX63onv8of36xJWmaj4Gn7mV6qfyc6TZ/J76y5/Z03jDgRL9GAwyHqIGZZpMfN6vWxjFrXa2xvcY74JmtjUg5mymecWAAAAoLy8nC8mSWFhodvtZpVeMpkMhUKG0ZG0GjzbIBAI0DB7QwQQCoX4B/v8Y3yv11tQUFBQUFBUVMRqSL/fT+2w/gUkGAzy7ZSXl7tcLhrVzypnWievoKDAEAEkk8nu7nY+uSC00L1NLwCaO4CfbM/A4/EY2nQ6nYbt+akWqZymC+R7AdA7hgjAcBMURTGsF0hzKPBnyC+LWFRURMdyOBx8QV5ZWckCHak/snG73dQUiwDiiYTh6mhlR77DCN1wQy8AuhZ+BIENRABDhHX4Z/3/L6cAraeozucHBVBfAHqfFYQat1KAajvJf44pQNoIIJWn70yzfD17Pf7X/xwKhUKhULhf8G3RFf5kbl3ASCTif3JVnivYPR9F+udfZEcJ7/koi6be8vjo2yq+S32wlj3c5n9+xNfwM7xe/CeLFQFzbzbVyzARIF2IYIkeCARY15i0o/Qz2pgEg8GEFfFJAQXdfffdsVjMMsoBAAAAINQfnl/3PtWDcb/fT9v4/X5D5Uwjz0OhEB8ckEgkwhoPBoP8l+jjNz8hn67r9MncPEkBa4cqXtoyFAqxs41EItRgqqqePxO/359qIkCiqqp9a0TTtFRXx9B9YxW+qqqhUIhdoK7rdCD+ttM2hiyDHYs6JsRiMfMZ0rHYPFC0gaEd/ttNX6KmVNOsB/wdM0chmqaFQiF+L/oxUFXV/t4yiACGAtX2rMjvauugQQE0QP2i3ptIJNjz/zNalG3J5qVPJBKaabHAVImA+c3cg4C0oYCqquIP5J/4X/cHB9ob3CNeZ9JUguzQgpMCChbt5usij//1P2faGs1cGMlkrcRDOz+iaQgNZer2StH5CA2vV0of49sx/GT2dHQ9e4docJP2teCmu89oUdY4HVH8KX1VVRUbFMOmUUmF/t0iVVVVIu1TLwN2b9lcj11tHfkaDjB27Fifz8fmkrS85wAAAAAAwwgRwKBjQwCoJKDH+5cf+Mdiuq5TnUDTBNKIABYBsPrhot5rEwEIyiUIMIcC5sbFa8WKvy0LmIjv/s7q9fxphPd8lJfhAK+UPmZ5vZStVq14LdMGFXkZtSC+S3jb+11tHTQkhFcfzHLBxe2Vr1IL5liB/eAt+V5pXiKAP7xfx//YU/3f09El+JReURT+Z8x+Y/7nmc3vYi8QCLDuNoaeOJqmlZWViTSSyvjx473e/oUnWk+xcT1IAQAAAABgREEEMOioV795FkBW/1/Uew1jBAhfOWQRAaR9aJ/fLCC0tVq8Vnzif91fZTL/W3cJ7r7uEa/hTHZv3rbwf+ZUx655YLFN/U9emLJgsCOAj6p2scUL6CeHXi1qQ3bX9d4aP2uE/Whd1HvZS9f1WOupleMezOXuLbjp7vpgrSFluNx4LCb4lN7n87GBIaqqstlWzYqLi9l3JxwO8zO+2KiqquJvLCv+2W/E4sWL//Iv/1K06OcYlreIRCJsBUqkAAAAAJCpyspKy1UDk8mkarVUnuWbWYjFYmyiQZ6iKKkGKVxLVFU1TKkwQtBzsvw2iAhgcLFing0HoKn+qZM/jQigV09HF3swa/g103U9914AgxQEEPEp/WXJ+fR9cxUT8Rp+5fi5hio9HA7vDe55+f7HsyhfH//rf65a8RpffJqLfxqtEAgEVs9/SjyqePXBSmpT/GQC/7GBLyN52RXntVuCl+ebbD3FF8A9HV09HV1XiuFYbHvlq9l1pljxD3OaPz1qiBiuPGZvPSUYAXi9XjYqxDz5Dc/pdPLfl7RzBxIaaHD5PvQvw8l+C+jbHQgE3G53pkEAjQ2jEXSpUoDh+dsHAAAArkJut5s+VJhH/tPi83xAoGlaSUlJJBIxTwfQ3d0eMU3Rl0wmdV23HGlPH8YMb0YiEUNhzPY1/8Hyfw3vpN3dLJ5I0Ecs8zXGEwn6qjk06e5up09llm1Sg/w74XBYlmX6fJhqF8HB9rSxuZ04VxUa3qdLsLwVlZWV+Y1gEAEMA3rsT4UB1WCs1zSVT9SFmG1PQwnyEgGoplkD8xUHCK4wxyIAn8m/FrlEd79zhmWhvje4Z9v6t16YskCwSl9U5PrN415Wc1raG9xDxT91VaC04rmfeZbc5V74P0v/7ds/tmn/tVlLqBHxO7P2V7+m86FT4u9wdlMe8N/iK93U+8tgVgmzn67feX+zcvxcwcZXjp+7d/M7/KoWrOilfIF+bgU76ldWVrJRIcFg0GZ8vtvtpm8KEZzPj2Ze4a+X/xFiKQ9ZvHjxfffdV1xcLBIH3HbbbSy/YEEASwHYKIxh/DsHAAAAriLl5eWVlZVer9ewQICmaTThPF+oK4pSVFRUWVnJr6IXDAbLy8upBfOD/fLycrakH6PrusfjMZegXq/XUCp7vd5YLNbd3U6L3oVCIX4tZE3TaNZ9n8/n8XjoD3wLfr+fps0rKSmhc3a73fY3RFVVj8fj8/moROe/JMuy2+2urKx0uVyG8wwEAj6fjxYj5N+PJxKVlZWVlZUej4efbE9V1XHjximKIsuyYRe6OT6fjz6F2p9tPJGQZdnj8ZhvfiAQcLlcHo+HX4YgFovRN0uWZbZgARMOh83frBwhAhgGiUSCH+xNy7ZTBEB1gqHncCKRiLWeyr3+FwkI1IHz/2WKVVNUM1PBTBW+dyBD/W/5JUVRqqqqqCCkWtrycFSls/rtcq3+3OrV8596buqCp++cUfG3Zey1cvzc56Yu+M3j3s2vr+VnImDPn/kXa5ZdC7sc/iQZdrbshFmCYGjEjA2IMJ8VX1sanjOzqv6MFuX7tKfCZwGptg+Hwx+/v3f7a5tefbByzQOLn75zBv9a88DiVx+s3P7aJnPLl0+Gwyptww+G5a3gR4Wwy+dXjmBP/vlvtH1r1Mje4B5Wlkf6l3u0/Ik1YKchEjFY0jQNHQEAAAAgI263OxKJJJNJQ42aTCbNJaKu6+YS2u/3sy1LSkoMz5y7u9vNpT7NV294k6pZw5ter5c+ljudzkgk4vf7+aqYCmw6VVqjztBCOBymDUpKSnw+n6ZplqMPzFRVLS8v54vnZDLJ3gmFQub7QEtHOZ1OPklRFMWyw384HGYtGJqivCAWiwWDQQo+bCiKwjIRl8vF33z6vhhu/v/f3v2ERpLleYLXtWiambz0efrWVQubB+k0sD1kHvO0E5DsEjVxCTGiWWogg8w8NAEN06uBzCaUhzgUiCGgCjKqoLoEOpRDT0+IrCJGECzqvHSmDiJDHblBqOhoAtUW5KhuvgdzN3/23jNz839yk/vnQ5DEz2V/npm7kvh97Zn5hx9+WJz509PT9GxHAcpciACWo7hMGjUGdVcLF3QXwOm45wU0N5Pt+/+isb8/tNtO2V2HKUDZAJc9YdoQNjSWDbJdd9SypjMX0iwgTAGiGQTR2IpV0tXDwWRHWGw/vGcherPCmRFhCx0uH71x0WSKhmkRqWjLZSoRXmxPPxjNwga+7h1ps6nww5Oeq+wnNjuGWSKAcsrP9f4/BgC4qXZ2dooIYHd3d+oIoLgC3w8ChWa7u7vpbPODg4M0Fzg6Oir+rX5ycrK/v//hhx9GKxb/si0uXxe9QPjT/3l1VVxRPzo6+vzzz4t5oM1jOzg4KK7M3759O40AiqkEp6ent27dCveys7Nz//79/f39zc3NcITZ+x36/f7x8XFx0tLg49133719+3bZ0TSPdmdnpzyinZ2dk+oMiDR9KJdJI4BsBDM7EcByFNf8i+v/oWLudPTixcXFIvr/NhFAuUyb/j9tqNL+vzkFiBaoSwGiC8JRN5henN+vCQKyPwqDgOjqfXY6Q91QsyHCftDzpxMf6oYavVjuJZq8kP49XCDq1cMeOJpGkaYh4Tazjqq3wZ8Og4Dyk1O8WS379qgDj0yxkWiEpbHBRPlu/smf/Ml0EcDp6enFi5e/e/3GvQAAQEtl0x5N7+/3+7du3YquIV9eXoatb6GcBXB+fv7ee+9Fq5wkN9Wfn59nL4zv7Oxk70L//ve/X1y6v337dhpA9Hq9zc3Noq3d3NxM++2dnZ3Nzc1+v7+/v7+5uRnN7S/+GRkddRGF7O7u7lcjiVu3bhXb369e2z89PS3mIFxeXn7/+98Pj+Lg4KDMR8LXi2cB9HONd/Ev9uLv0cksnjgQvlJu/+Li4r333gtPdRF5RGfjwYMH9+/fL2ZDRPv9/PPPo8hjLvZFAMuS7QeKudNRNPC712+WNQugYcVsMxn1/0WjW3T1H3/88ccff9yQAqQxQXo7QHh1uqG7zk7Uz/b/6U/ThjPceDrUqIdvHyJkV0/HmY42Pah0Env5SjiYMkAZO68+XTebEYRhQfjwguijUj5p73HufoqxDXzz2Yhk3/eDg4PyXoD0E9uwzfKD1/BswrERQHEvgAgAAGhpd3e3uCi4nzwK/sGDB7du3YoumxfT1MMlDw4O3n333fv379++fTu9xv7hhx9GL0aT+Qt1uUC/39/Z2Smyic8//3y/5rECxd+L5xdGC5Sd8MXFRblkeIwPqrcGHB0dFXcNRM9BKLZ/69at4okAYXBQtPE7Ozv7+/u3b9+Ogozd3d0PP/zwww8/DBOW09PTYr//8+oqOvDiiD788MN0zkKv10sv1BcPAginA5QHkp6ufr9fPpsg2lQ6w2Iu9kUAnVJEAIu+FyC8QjvdFlpGAFH/H6YAzf1/w0SA8op0tv9PL63XtdZ1DeekEUA2rQg754PG2yKyRxq18dG6ddFG2AZHx3uQu68+exrTMdRdh0+3n00Bis/Gk97fpSdzbATQcIx10i03RADRqPaTKSTloT1o972DDRGAewEAgLkobjOMXjw9PY0udN+/f7+4G3HsBtOOt7A/7++im0XdsRRhRN13KNa93u/3i3+kTTSG4h+3LRduefJDBwcHYfZxsrAvKdwXAXRK8YyA7I/mFQGkT0Qf2+3XvV43rTpsWaMIoM0sgCgmmOjqerTx5qvr2T4z2+6muxg7YSGNAOq2EEUA4cGGe0/TjboGODpvUQTQMI2izQnJRgCPq3dqlJ+rumZ70gigvboIoFd9ekIxqjSgqYsAjo6OPv7440m/LHBjY+Pk5EQEAABcsyICaL98ttVv6J+7o3xuwo12+/bt9957L7rtou67G2e3LwK4Kd789vV8U4CWEUCDdBZA0SKWDVXR7qZTABoigGjhqLsOO9Lm5rwuAgg72PYdb91eGiKAaLbCfv2TEcotpMOIdt0wx2E/95SBaEjlLIBoCkBdOz1FBJBebG/ZbId7bNPqh8s/Tm6UWEQEUIQmu7u7t2/f3tzc/P7Qvwl8P7C5uVncBScCAACgO/ZFADdF8QTB4tGARV8Rfq/b1BFA1NKnTX6b/j+90hs1zHX9f9iyZiOAuvY4bPzaRABhp1p36TtaJooA9qvzGhYRATyozndId12XAmRFEwGiJykUY2vut8PePpp8MWkE0GbKfaRl81+XAqRt/Cw3AmRnT0RrPUhuPSh2JAIAAKA79kUAN8t3l78vv26t/MukQcBcIoAoBWh+FmDanIcdbN1EgLQ9jnq/sZ15Oh9+7CyAJUYAYQOZ7nqKFCDdZvYOhWwf27BWNgWYNAJoPvPNKcBEy5cN+SyPAyzTk+zsiex5Kx6LcOpxgAAAdMm+COAmury8LPr/V+ffhl/A3iYRaFhmopsCmrupuna3oXFNU4C0k99P5n6n66ZBQ7RiXQSwXzP1Pd1X3RGFTWPRN076LICw655xIkDdcTV/T8HYFCAbAZTL1D0LIP1GgLTTToc39j1Kh1S38Rm/FLA4tPINHRtnFMsXJ+HV+bciAAAAOmJfBHBDXV5evjr/tpgLUHyPwOwRQF2rPzYFCL8OIO0q6y7+l11TNgXIXmMPu6zmFCBtaJub/7Ht5X79pfj0Gn7dxfax43xcM/E+Wn3GWQDZCKAuOygXDvvzMAUot1z3jQDNzXaaMoTnLVo+fYOaU4By2NHA0s9tw77aDCzdY5E4nJ5JCZOmAAAgAElEQVSeXrx4+bvXb66urkQAAAAs3b4I4OYqUoAoAri4uCjmBdQ1/IuOAMJuOWpZs01mKbtKy06+zYrlutm917WjUW/ZcFxRB1gXAdS18Q2rZ8/q2Oa/3Gxdzzz2VIRtf9h7Z/v/cApA+iEJn70XCWcQRI8qiPYV9eTR/fkN2y/vAih/BRpSgOzYWkYAaeJQ/Ep6EAAAAB0hArjZvrv8/eXlZfFlAeWMgELZ5BeTBaII4NX5t83t/YwRwH5ybTl7hbmuma9bMezNonWb2+CWoq6vbuJ38/CyzXab0/I4uaLecOf5WFFTGvbMabrRoO5wwia5GG14C0D63ZPlJyScVpDGB9EnKlwlCgvK5aPvOMgunx1YMbaGfWWjk2wEEEUG4YMARAAAAHSHCGAVFN8UUHjz29flf4s+59X5t0UKED4yIMwIphbdVt38yLe0808vKYeL1UUGYWOWNudRhzym488NLIoAwiY83VHD6sWKDdeN09Wj/j99/tzYc5seUdo2h1suB5nNAspTnT4MLxI+bG/wAXvx8uLFyzJ+Cj8k0UX17F36aW8fphjZ5dOFe8m9CaOYLHiCRrh6doSR6EMbna4ocbh48dLXAQAA0B37IoCVUXxrYDEjIEwBwtkBowjgxcvwfoHZU4C6CdVRhxz18HVtVdpaZ5vz7HTxut5+rGhUDdfM63YRbSHqscdePQ77/+Oh5lnxzQebbjDbNpfHGO6lbOzLdzYMJso0oVilF3zl3unp6avzb8tMqvyYlXsMY4hwSA0frVLLhcuNZ4KJi4s3v31d/HaEvwLp7o4S0VmKhKf6pDoFwLMAAQDoCBHAqilnBBTXHt/89nXZ9lxcXJTTAcoGbb4RQDTZO9smpT12eOk1XDjsjcPmf2xvFq3YIBtJpNuPrn43JAgH1QgguqocrV6363RKfN0pSocUbTNthusunpcnNmplwzFkV8902sOP3+9evyk+gWmnHToN5ueHk1ayqxQvlgundxzULV+OqhQGAc0jDEOB7DSB6IydnJwUwyunAIgAAADoAhHACiqnA/zu9Zuw1SnnBRSdye9ev5kxAqhrk+qmUofd+3FV2syPXTftzRp2PVZ6iTsdW3MTnjb/DaM6qKYh0dFN0YLWHU56/fyk+lT8k6DDPwpmsJc/itY6De6fj7r3Mlf63es35WevrtMOO/lwosroEn2QWEXChcu5BlFwEG6/TMHKC/JXV1fFczRGwwtGGG6k4Y3IfiCj0KE4D/p/AAA6QgSwsr67/H05/fi7y98XDX/Z5BTzky8vL2e8FyDbrB7Vq7sWPXbd7GzwqDGrm7/dRpQpjG380j48vJDeIHuzenSYDeen/TFmN9Xwxp3Uz64vuuj0OvnpcM5/1GmXTXV41X3UaV9cFPehhA+wiK7Pj2YQJMJsq3bhZPvFYlc5YRYQbSRKBBo+uuEJLH/FTAEAAKBrRADr4urqqrwpoLheWlwRLb4aIL34OXUE0NC7tlx4ESse50yx/ex2sr332MVaNu0thzF2lYb3rujkywb4/Pz8JL2lf/ggieJH4RX48+AbKMPGO00BGpQX59POfMaFo+Y/+6uR3UglEchNEIhEkxTCSQfX//sOAABZIoA1UjQ55fcIFn/Ohw8IDIUtTdgxZtvISeOAbHd6zSvOd8uztO4TtfENG2lepa5ljbr0wfXz4X/LZri8zl8IHzMRxQTlpopPWnhRvdhd9jp8tj9vXjJceOySdc1/+gtSFytEcUBx4MWfwYyD3KSDMqqY/y8zAABMRQSwjoq25DK4SbuYFxB9X1p4f/WkEwTatKNpdzq2+x274oyhQPujuInC5v88eFh91OcX18zDBrj8UTmzvXzx4sXLy5oJ9uVi4ZdTXN6cifF1cUBx00H0J7o3QfMPAEA3iQDWV9SnRVcyK6HAReXr09pHAHU/bd5U2rKmC7TZY7qdbD/cfrMnScRwegNjgtPcA/zCD0CYC5QPkixb3HAWSfmsu6hbLqOlYmvl62UQUEwHWPZvQFvpAWb/TDHvAAAArpkIgH6/348mPJeXbS9evCxnNZd3DaTOE3UddbRwQ+OdXXdSZdM7342H7XSb1+tG0rBW1LSfzi9rOK15v9IXw6Sg/AwMnitZfdZd0e5WppYMhTHB5eVlkSVdXFx8d/n7ZX/qp1Q35UHPDwBA94kAqAhTgLKXK2eGh89+C50Pn38eTvnOtrvh7QZ1W5ujeeUL7bfT0Oc3bz+bArTc40RJwenwXUjfpuyS5fKD+96Hk0SKvxcdfnEN/LvL3xeLlR+YNA4oliw+ZnpmAAC4ZiIAYnW3QJfNW7Zvf/Pb19Hs8fPhg+VD58lD46dOAabo5K9H2sxPt9Z020m3EKUDp8N3IQx6igWiUCAsG+YInJ+fDx4KWP3KyfJ2gOwX/hXLLPvDDgAA60UEwBjlNduyYXvz29dpt1neQx4+XyDbl4ZTBorNXrx4OUuju1zZa/XTzQWIFqjbztQbD4Wz8a+uropePXqmXfHM/0FXHzwqsli9mAiQRgbRYuEsksHXUg4zIBEAAABcMxEA44VPQQs7w6irjG7wbpgyUDxGvpxcUBcW3FxTX8CPVpx9IkCDoo0v+vN+NevJ3ts/mu0fXNuvTPUftvfFYyNOTk7OyycODqOE8g6CMgBa2scaAADWjwiAtoqGsHKJOGjtipYyej58v9/PtvfRkiuZAjQY+1yAsQtPMdGg7vXz8/PytvziQn2YApTvezFBoPwwlB+DMiwop36UdwGcJ18zOXhl+E0BxUdoGZ9lAABYUyIAJpM+BT28FJx+U3rDEwTDlvLq6urV+bcNjfF0ys5z7ltuaeq5AG2WmeMEgfLtuLq6Kt7N6N0p3so3v31dvlK84+Ej/cobCiqbevGyiBjSbwQotnlNH1wAAEAEwFykzw6MZO8dKK4/l1eSG75x4DR5Ul37zvbV+bevzr9dYgownet/2OH5+XnxxP7yiX1FWbzF5eP9oykD5TcChIuVXwRYvPXlEweKnj984oAvBQAAgOskAuD6FLP9owfIlc8R7A8vI5c/qnsi/URtbXk7+o1LAZaivEejvOxfTvXvD2Oa8uJ/edm/7PP7QatfdPvpPQLlih4EAAAA10wEwPUJnyZQ3ixQPGWwfNTcm9++Li7aR8oGdeoUoPyqwjbLl083mLqXDi30qX5zFz7GP/oyiH6/X0YD5bc/FN/wV7wYfitE+iWRxXcHlt8RaAoAAABcs9WMAD54653yz87GplKpVCqVSqVSqVQqlcoVjwC6c6KVSqVSqVQqlUqlUqlcbrnKEUCnTrRSqVQqlUqlUqlUKpXLLVc2Alj6mVUqlUqlUqlUKpVKpbJT5WpGAF04s0qlUqlUKpVKpVKpVHaqFAEolUqlUqlUKpVKpVK5FuVqRgBdOLNKpVKpVCqVSqVSqVR2qlzxCKA7J1qpVCqVSqVSqVQqlTet/Juvq43n1z9a4jBe/vetWTe1yhHAsj8rSqVSqVQqlUqlUqm8seW7f/u63+/3n/10+NOf/33/6x8tZVRFBPDtr9+ddVMrGwF066OjVCqVSqVSqVQqlcqbVf7oWb/f7/f+c/LToiF/9vO33tnZ+M/F9flfv/vOB2/9zT/2+/3+y9ffDLrUf/7szgdvvVNew//ns8Hrr3/8F4NNDVKGQtnh/8Wvv+n3+9/++sfP+v1+/5tnX38zWqj/938zywGuZgSw/M+KUqlUKpVKpVKpVCpvdPnu3/5zpekspwMMIoCfbmyW7f2v332nGgf8xX8/K/8eXsMv2vtiSn8aJTz7+VvlukPf/O1/qWx5pgNczQhg+Z8VpVKpVCqVSqVSqVTe/PLnf19pPL/+0TvD1v1//Pytd6p36Yct/Wax4usf/8VwdkDR3r8zer2YZfD3fxPu6OsfvbOzcaeICYKGPwwaZjqiFY8AOvXRUSqVSqVSqVQqlUrlDS33fvyy3y/m4YctfXiFP5wdELb04RX+d37aG7we3WhQLP+PdzfLmQJBw+9xgAmPA1QqlUqlUqlUKpVK5bzKvR+/DG+8T1r6yv3/QQTQPDsgXTeMEop1w5sFiiENnw7gcYAljwNUKpVKpVKpVCqVSuW8ysFl/5HRZfnsj4Yt/cg/3i02Vf/Ngs2PAwwa/v/y2beDpTwOsOBxgEqlUqlUKpVKpVKpXF5ZmfAf/DS8wr/kQYoAlEqlUqlUKpVKpVKpnL0UAcR8I4BSqVQqlUqlUqlUKpXLKVc8AujOiVYqlUqlUqlUKpVKpXK55SpHAJ060UqlUqlUKpVKpVKpVC63XM0IYHF7AQAAgBtKBAAAAABrQQQAAAAAa0EEAAAAAGtBBAAAAABrQQQAAAAAa0EEAAAAAGtBBAAAANBdV8zJst/JThABAAAAdFHRuF4GLpbkciUsN4DIuv4PlQgAAACgc4oW8XLY9p8HTmdwviTLCi9Cq5c+TPG5EgEAAAB0y9Xw4v/FxUXR85/cHLMkFIsOLG5cxDD3gEAEAAAA0CFF/1b0/2Xzf3R0dHR01LsuRzM4bqGDMcTSk4W5xwTZT5cIAAAAoEPK/v/8/Pzk5OT4+LjX6/3yl7/U9i+i87/RzX/zNIHsp0sEAAAA0CFXV1dp/39xcbHscbEKRAAAAABdEd0C0Ov1Hj9+fHp6uuxxsSJEAAAAAF0RRgDHx8e//OUv9/f3lz0oVocIAAAAoCuKCKC4C+Do6Ojx48ciAOZIBAAAANAVaQTw4MGDZQ+K1SECAAAA6AoRAAslAgAAAOgKEQALJQIAAADoijACKL4OQATAHIkAAAAAukIEwEKJAAAAALpCBMBCiQAAAAC6QgTAQokAAAAAuuK77777l3/5l+fPn5+cnPzd3/3dT3/6UxEAcyQCAAAA6AoRAAslAgAAAOgKEQALJQIAAADoChEACyUCAAAA6AoRAAslAgAAAOgKEQALJQIAAADoChEACyUCAAAA6AoRAAslAgAAAOiKuUQAf/jDH161trj2jw4SAQAAAHTFXCKAV69ePX369Ojo6GmjYoFXr14t4kDoJhEAAABAV8wrAjg6Ojo5OTl//rzu4v/58+cnJydHR0fXHAG82ru9s7G5s7G5s3H7V2eNi/b+qljyv/Ym3McEK/7Tr7Y2dzY2d7Z+siZBiAgAAACgK+Y4C+D8+fP7f/bviz8fvPVO+feyPH/+PJkFMGyJN/7qH0Yv/ua/bsypTx405+Oa/8rC+U6+jBIyPxUB1BMBAAAAdMUcI4BXr1419P/3/+zfl4sFqy42AviH7Um2M3UEMAERgAgAAABgSeYeAdT1/yKAfr8vAhABAAAALM18I4CG/n/GCGDQzI/+BHP7z37y1+GPBmuVWx7+2f5NuuXhZv/qH/rzuhFguIvt3wSPISiPLo4ARse1/ZvxR3oDiQAW5vDOxsjbn3617PEs2+qej68+fTs4tDuHyx7PeMMR34SxAgCsmUXcCFB3O8C0EcCoqQ4WGDTGgzY729In5bVGABubf733T6MDHAy+EgGU2/zrvX+qDC93pDfUekcAla407eCKHwfdarT8+AaqXGGlWt7pLfZ8DBrbpfS1oxhgIbtPPopz2NqctlgNQLIbTReJTlKyQO4kDhbyqwQArLgFRQDZ6QBTRgDDi/zDPjkw/NGoLa+28cuMAOKr+sUYgghguNao4W840htrvSOAfr/S1kd9x/AnUc/x1advt+9DarbRbXMZdNnVVc7qIs9HucelnOz88c5J+SGdeOP5Yc19FkDxS/F2zRtQic5qfstGr9ecydFGzF0AAFbaTXgc4Oi6ejw3vuyikz9djwDi2xaqw1uVuwD6IoB+v/YCbt2l0q8+fbt9jykCuLYIIOgzl3G2FxgBhNfIJ936QpOJaD93Pq39TbpzJzv/oy61yUUeC55nAQDQFTfkcYBJ51z02+O+je8GRADxNf+aI72xRAD9muYivHIZNigTJQAigGuLAA7vvH3nTtkqX3+XuLhe+6tP3x510JOeueuKAPqHdzbuHNb9Jt05zN0C0tDU5350I3+XAAAmtuzHAZatdebxfvn58OFPywcBjm6er0gigLqn8S3jRoBRt19zqX8l7gsQAfT72Yajrm/JJQDRncxhP9N0M0E2YUjvix5trvKTtz/9KqyLbaSvhKqPMsh2UrmnI2S6sKZN5G79LpcNzkdlqaQHbDHWaJdvf/pVzWTx6EGEhw07jo8/3XHdWxf22nXxUe7sjG3ND+9s3DkM1sqfi8ywat6GT+PHMuaPOTMJpvE9iYc5PK74ncmcsdwhZd5JzwIAANbDHCOA8+fPG/r/H/3rf3f+/HkaAaQ987DZHvbtvb+qzJYf9NvVxwGGnfnZT/669kaAxucFXncEEHyXQVE2HukNJQLo9/uZDOCrT9++c5h7fN3hnWzDPngx6fgzEcDwpTuHwY5r1q8sW3kl06vduXMnfiWZ1FC8MubScDa3iNeJRl5/SmvurohDi/QMtRprubPaxrVmx8lZikbSMLDsW5fO1s+8DWM+LTlFa13ZfnwmWg0r/zYkgw8X++rTt+NPYv17MhhnvKXhO5P+JjUcUD+fDxSvuQ0AAFhx84oAjo6OTk5Ozp8/fxU4f/48/HNycnJ0dJREAP1++k144VX9zA3/4V0DyZcC1nX4A+n99pNFAPGf7d9MHwGEmw0fEFh3pDeQCKAQdS6DBCDtXKIEIG7ikr5xTCZQ3W19z1idnhB1RulqtcMaLtH8eLlMa9rUEI+5LD3mRoDaTrzdWIeLBBedk9axZs/xMUV7Tvbb9Nbljnfsh6HF8wvDSSc1z8ObdFj5Pecm6pcf9jbvSRpVDBKBKJuZOAKI8i+TAACAVTfHWQBHR0dPGxULZCMAVpUIYKDSuZQJQNws1SQAGYP1o64vN9ugLLPfmDemEc0uEr+SnRGe7irZZ27Odu75bNmNTBkBTDrWwSZyd0tUl2+Yj5FuOfMI+8a3Lnu88fkZ/2nJncTsd1LmDrftsHJDy22of3gn3kbTe1K+CeGGRuOfxyyA4pmDJgEAACtuLhHAH/7wh1etLa79o4NEAENB5/Jp2HiF3VJ8F8D4r7kfFwHkls1HALXzCiaJANr1T5NGAE3f4j59BNC212toUMc8laG2fa7e0N9uYBNEAK0vZNeHBplGuu2wckOr7q06EablezLKYYLu/e23449t7p1v+SyAfnobDgDACppLBAB1RAClukfpjdqlt+MnAV5nBDCXWQCLiQAWMwugZQSQeT5jtn0cOwsgvedjooEtIAKozG6objK9mWD2CKA27ZowAshe35/wGwFqbnoAAFgDIgAWSgQwUjeFvOHJ5XVdXdkP1d7+nbRk6XXnyvJTPQsge3W7uttcO9qNZwG0Hmv6cu768rhnAST7bTmw4dXyCZ4FUPtpSU5g8nLaXU88rOzQkq0nzwUc856Ejw7M7TR/7A1npH4UQgEAYLWJAFgoEUBg2GPEPWXd6/1+9nJl2JWmvUymnRq1gOO/ESC/+thXMjFG/Y3V2QYxbuuaTkrNIJpHn5nbPnash3fyLWHmOnTyRtVO0IgSgQnfusY5+mM+LfERNH/gGmKlIFRo7KaTPdTFOuPek8HPo3kAuY9t/HY1fFarS5oYAACsCREACyUCCBVdRtp4FU3J+Ga3rumM26ro9vXk0mp+rXSLdw7jG+HTV2r32jQdvbpo5lpuq16ssnT0hfTF/tMDaj3W9Mjz5yje1dtv5w8tWjUaXe4hdqP1M2OpfxvGn8PD9ETl9hKu3vSJit6Gw3gzmfkBzbd2NA9rlKDkT07uqJM3renpEhIAAGC1iQBYKBEA66H5tgU6oOGOGwCA9SECYKFEAKwHEUD3NX5HAADAmhABsFAiANbC5F82yPULbhoQAgAA60oEwEKJAFh5mccDaDC7qv4hCgAA60EEwEKJAAAAALpCBMBCiQAAAAC6QgTAQq1vBPATAACABZu0r1l2BNDbrt5Cu7V3do17n04x5rEjjRZrudaqWd8IAAAAoGu6EQFs9/r9fr9/trcVVJ01XQSwpkQAAAAAXbHQCOCDt96J/iSLVCKAYQgwbJsHkUA6P6A6d2C7V91O2HsPXt8bbmlr72y01VHWUNngcE+ZdaMxbWz34lcGa6eLVROB/KFl93iziQAAAAC6omMRQNgop1192uFnt5NGABtbe2dl1x1sPFhmsL1wIkKw7vgB9OO1m24EaD60dI83mAgAAACgK7obAVR/MqryrfGYWQBJsx1MN4gfRzC27U8igGgewNgIoO7QWgYNN4oIAAAAoCs6FgEknfm1RQCZXrtdBDBIEMbOVhABiAAAAACWqlMRQPVxgFPcCJC26C0igGoTX9SNDXn1gQXpVjO7aDkqEcCsRAAAAAC1uhEBRDPwhyZ4HGAyGX+CCCCzdvM1+eiBgqPRbG2FGUZ1sQkeBygCmJoIAAAAoNayvxSQFScCAAAA6AoRAAslAgAAAOgKEQALJQIAAADoChEACyUCAAAA6AoRAAslAgAAAOiKZUcAyYP8N4Jv5xs9a3/0UvSD3A/pEBEAAABAV3QkAsh38UGjHyxQXWVFvjtvZYkAAAAAumKhEcAHb70T/UkWaYoA8pf6k56/eMFUgG4SAQAAAHRFRyKA3H0AZWtfafqLFcKr/ukrdIcIAAAAoCs6EgGk1/DDH4QZgAjgZhEBAAAAdEVXI4DcYwKLLt+NADeKCAAAAKArOhoBxC+n8wA8DvBmEAFch972wkOwa9jFunFKAQC4ft2MANK+Plqu8qRA/X+HiQCmcra3FX2ue9vxR/1sb2v4GzFFM3m2tzXRKmvSr449LZOetwZdOKXJ4UTzr5Y9PgAA5m3ZXwo4EzMAuk8EMJ3edvWTPQi9wo4s6CBFAPMiAtjbGtW9bSkAAMCqudERQDgbQBDQTSKAKVUzgLO9rY3t7UrLGDaQxd+zvw2VCTPDFeJHbdR0eQ2LhT+q/d2Le9zKMdVsIZ7/UNtyJxtLi+yxN5yusaelboFWZ2Mup7Txve5XDnn4g3T+yPCV8R+DdDYKAAA33A2PAOg6EcC0wv550AenXX+wbHXpsm/rbVeb7rDdHXu5uyZxqP4onrAQHcPoR8Em6rfQOgJINhf2vMNHh+aPveF0TTELoPXZmMspbX6vo21UbpzKnvrm440GDADAChABsFAigKmNeriyTyub2/rmerh8toOMuuam5i53Bb/utoP6Ge3hMNttoX0EMFrybG9ra29v1PhnR1O/+3CXk0cA7c/G/E5pdvCNZ24YgcThQsPxFrmKAAAAYMWsTQQwr+cG+ArCyYgApja6BFt2/mWXF7V7jRFA/gFvY3rdJEWob9Ibp4tnR9y0hfYRQLno2d7W1t7Z8CylnW9y7POMANqfjTmd0trBV297SKf2Zx4nUXu8/jcHALCylh0BxP9sXdh9pyKA5RABTG+YAYyu/Q8bvrhBrO9pqw90az8LYF4RQHbEc4oABmMaJAD9fm+7erZqj311I4Bx8zqS/wfWRwAeAQAAsJq6EQFUH1K2kP5aBLAcIoAZFO3dXtiOne1tbWzv1TeTwXqZtvDabwToD6egbzXNWpjuRoBita3t7a1g1e3tSgKQP/bVvRGgduyDH1YeiZA9HAAAVtxCI4AP3non+pMsEnXU1cd6VWbxhlf2RlOLRzOlB38d/G1vuGr1CWBNW05mDUePKa+ZTF0z65aCCGAWww9Y5rnxTQ1jzTX16i9bm4vG0a/G5M+uy+x33BYahpyIQsNqWb+hpvsmxp2WdIHJnuQ38yltGHx12kP/rPx+v/iRDMFC+eMdexYAALipOhYBhJ16+KPg73G3P7z9t/Ljui2EN80mWw6FzUSlsciOhFoigJlkHsmW+9iNuaxdRlTV5UZ34dQ/b6+Mw/bSXWSysrxsQ1m/hcqQJ3pkfa7MHHvz0xPHnZbMAq3PxhxOafPgq6nk6P9T8b0LG3E6kv5/2P/ZAABWUncjgPSSZdR5n+1tbW1vbw0fc51p6dO2P0kG8rciZP4JHXYP1bShZRu0pkQA6CcBAKArOhYBBNen6hv13vbwGtrgGuFecIPrDBFA5YnZo5ers4urK1cjAzFASgSw9jxaDgAAOqNTEUB9s52/VD/8JrCtrehO1+YIYPwtBrkbATIRw0g0tZaSCGDNNX1bAAAAcM26EQHUXEjPP7QveiJa9Kj/NhFA7ZZHo9naih8sVhHMDqi8RkwEAAAA0BXL/lJAVpwIAAAAoCtEACyUCAAAAKArRAAslAgAAACgK0QALJQIAAAAoCtEACyUCAAAAKArlh0BJM/a92j91SICAAAA6IqORAC6/lUlAgAAAOiKhUYAH7z1TvQnWaQ+AqjMD9jaOwtf3drb2x6+3NsebaC3PVp48PrecDNbe2ejTQ73F01CkETMnQgAAACgKzoSASR9eNrYF3+vLj8+AtjY2jsrV9raO6ssE67KYogAAAAAuqIjEUDchleb86AazgI4yy6amQVQEyIEEUA80YB5EgEAAAB0xVpHAP3crALmSgQAAADQFR2NAFo28KOfhm3/JBFAdRwigLkTAQAAAHRFVyOAcY8DPKtZcJIIIF7RQwEWQAQAAADQFcv+UkBWnAgAAACgK0QALJQIAAAAoCtEACyUCAAAAKArRAAslAgAAACgK0QALJQIgBmcHTza+Ojpsr6nY8a9L3fwAACQIwJgoUQAi3d28Gjj/U+2nwUvvXy69f4nGw9PlzamrGeH8TgTc2mb25yQYpnBn5o9igAAAFg5IgAWSgSweINuNug2ew8/2eheBNB7+Mn2w8PmrniOEUDDCek9/GTj/cNe5aeHmS8mFQEAALBqRAAslAhg8c4OHm08fLr3UXnd+3T7/cO9g0fDjvf13kefpFe8iwZ172H5o7IHzi8/3HL2R8EqtU3v6fb7h73+6fb7j/ZeVgc/2OCjvWdPt4Ltbx28HnbRr4OjKzZVbiSz6zEn5OXTreoYikh0mzQAABPRSURBVI1sHbzOnNiPDrfL7Q8ThMqpG21zNOxwsdGQxo452iYAAMyfCICFEgHM5IO33on+ZBY6K5rbZ4ML7GcHjwbNc6aTfL330aDDjGbL9x5mO8/R8lGfHPS3yevZDvbZYfF672HQbD87HEUPzw63n8VXzkflcPXBWo27bj4h2YvztS+O+vbT7eHpSm40GP0oXqwcfDVhyY953F0SAAAwMxEACyUCmMkkEcDg2nhxsb22Fa/rhOtmrY+28+ywtjkPV3z5dCu3nd7DYX8bLF+JA3LDCMrBcdVtKtx18wnJn5lnmTsUosGUKUnzqYvPcKX/bxyzuwYAAFg4EQALJQKYyUQRwHBSfdrovqxMsB/fx060/LPDjXDhyj0FpVEDH0zjz0y/bxjVMC8INlWz6+YTMtksgNxgxkcA5WLVWwPGjFkEAADAwokAWCgRwEwmiwDCm+Sbrt6Pbelzy7edBZBTefx+0BVPMgtguKP8HQGTnJDJngUw2yyA9w970YMMGsYsAgAAYOGmiAD+H9bSdB8wEcBMJo0AMi9We8vqswDGX+IOnwUQ3vH+eu+j8lF2cf989uy02spGD/ML7o1PngVQvW0+GszgYYTBpvK7bj4h/em+EeDl0630Jv9gYE3PAkhOXX7MIgAAABbOLAAWSgQwkzlEAP3yK/He/2Tj/UfbD8c/CyC7fL8fTmKvvt70JQJF8xw12PGj9YLbB0abCr4RIDPIhl2PPSHV/dY+gT+avFBGD5lhjPtGgGKB4Y9qxiwCAABg4UQALJQIYEWlc/hvqJU5EAAAaEEEwEKJAFZIMDtglb67fnB/wUb8gAAAAFg9IgAWSgQAAADQFSIAFkoEAAAA0BUiABZKBAAAANAVIgAWSgQAAADQFSIAFkoEAAAA0BUiABZKBMDinR082vjo6dmCV5mv3sNPNt4/7CWvL31gc3EN78hclp/lbLdZd/glGpk3evaNz0U5wr3r/eBNfYB1vzgAQGsiABZKBHA9nh2Ovq7v/Rv5Rfe9h5Vhnx08qv5D/3S7/t/9Ny8CePl0q+ZwblAEMN+hLiUCmMX4DT47nLpZLTe+2M/DDCOc1BwPJPp/BQAwoaurq8vLy/Pz85OTkydPnjx+/Pizzz5b9qBYHSKAa/Dy6Vb4nfYvn249PF3meKbz7DDoEF7vffTJxvufbD8Lflp/UDcuAug9DA6tSgTQkeVn3+DZwaOGD23LjS/08zDLCKfZ19wOpCkQBADGEQGwUCKAxWv8d/ygl954/5Pqv7/rXq9uNp1W8PLpVvLi2cGjjY8OtwcbfLT3stx4EEyM3+Ppdrn8y6dbHz3dC671Bdf9MtupDuCT+rNxuh3MlUgTh/pt1hxU7mzUnrrKMKIGphMDK5q0vYflSIJBphsMXkm3FnWw2W0Gg3m097K26a2WE5yoxuUnGGfy3rUbQHh+Hp5WFojfzczBDv7SeJLTc5h/p+qOrjrCsee5eaiDjdcdaXIgla21H/NQQ4gGAIxTRAAXFxdFBPCLX/xif39/2YNidYgAZvLBW+9Ef3JLPTusXDAfeb33UfWf1IPeuO716jbDf6APFjjdHu1o9Pezg0dlB9J7+Enl7+332H+999Fw48U1/9EYynQgv51wANVBNp6NwcbHb7PmoPJno+bUVc9t5cWuDKzoJ8tTN3aDDdd1K/1hdpvhFPRnh9vP2kQAk52o+uUnGWfF5O9U/vy83vvok+wy6UlounienMPG39DM0YUbH3uem4aa/41rdaSTjjk6yQDA5MoI4PT09Pj4uNfriQCYIxHATNpFAP3oWQCjrqDSPLx8ulWUda/HG4wvhGb+Ed/USAR/b7PHYIPDS3zDq+XjRh4NLN+/VY9o7NjGHlTd2Rh/f3UUAXRmYGPb0WiDbSOA3DbT27nHRwATnqja5SfaaWiGdypzfmaOABrO4aR7aTicVhFA/Qz/icbQZvmBxjuDAIBxigigvBfgF7/4xbJHxOoQAcykdQQQ6D38JGiZPqn+Oew1vJ5upzrHeLJGIm7exu9x+JC813sfja75D64Pj5rYzHba9G+NjeWYbbbttIdleuoqqt1LdwY2QZPWpsVtWrdynXm63U10otKja7vxFuen5QCiyfAzRwBN53CKUzr1+c+McKojnewdEQEAwEzKxwGUEwGurq6WPShWhAhgJtNEAKOnzUcXJ0t1r9eY6Hpdq1kAtU633/9k+2A0R+Ds4NHWwWnlBoHcdtrOAqjr38Ztc7KL7fUDG40kmgXQjYHdgFkAk5yo2uUn2mmbDbb5WKbrruosgGmPtOXyo72IAABgeuW9AMVEgOPj4/Pz82UPihUhAphJqwjg7OBReCNu3R34/X7/7NnpWdPrgWeHowUq9+SPuSe85u8t9lgOPvP0wXLKQH47lfbg5dOt/J3J4eBf7330SfPYWhxU7S33uVMXjST6vsNODKy+6ap/uMC4rzZsvHKefxZAdbOn26OH5012ouqXn2ScFfN5p8I75OsOtuZsVE30LID2EUDdYY4d6gRHOv7T1fyOeBwgAMwsTAFOT09PTk4uLi7MBWB2IoCZtJsFkJt2O5R/Dnn966XwkeCNT4Zv1ZS22WO/308fbRh2gLXbOTt4FE7Dru0NRhO2H20/HDO2VgeVf/B+zakLxA1MNwbW1HTlNzga3sSX9CvvWjxtPrhh4XAvupbe+kQ1Lj/BOCumfaeqB/Vo++Foakb2YKP4LHuS03NY905NGAEkh9l2qM1HWjmQsZ+uxnfElwICwOyurq7CFKAMApbudK7OF+Zi8S4X5moe6j5aIgBIlTdrQLeltxssXQeHBAA3U5kCFEFAYXE9c3vX0F1PZ3E9eXtz6d6nbu/bEAFATu9h7RwBWK7gMn72yxGXyS8OAMxbGAQQuZ5+ey6W/TkaEQEAAAB02rIb2A5Z9ltx44kAAAAAYC2IAAAAAGAtiAAAAABgLYgAAAAAYC2IAAAAAGAtiAAAAABgLYgAAAAAYC2IAAAAAGAtiAAAAABgLYgAAAAAYC2IAAAAAGAtiAAAAABgLaxmBLCzsfnBW++Uf5RKpVKpVCqVSqVSqVSuZgTQhTOrVCqVSqVSqVQqlUplp8oVjwC6c6KVSqVSqVQqlUqlUqlcbrnKEUCnTrRSqVQqlUqlUqlUKpXLLVc2Alj6mVUqlUqlUqlUKpVKpbJT5WpGAF04s0qlUqlUKpVKpVKpVHaqXM0I4D+99e/KPzsbm0qlUqlUKpVKpVKpVCpXMwL4v/71/1b82dnYLP+uVCqVSqVSqVQqlUrlOperGQH8x3/1b//jv/q3/2Hjfy3+olQqlUqlUqlUKpVKpXJlI4D/Y+N/CQ9YqVQqlUqlUqlUKpXKNS9XMwL43zf+7P/8483yj1KpVCqVSqVSqVQqlcrViQCurq4uLi5evHhxcnKyAQAAAFTdu3fvwYMHjx8/7vV6Jycn33zzzcXFxdXV1YL69IVHAF9//bUIAAAAAFL37t3b3d3d399fnQjg+Ph42WcVAAAAOmdnZ+f+/fv7+/sHBwfHx8dff/31jY8Anjx5suyzCgAAAJ2zs7NT3AtwcHDw5MmTGxwBXF5eigAAAACgzg9/+MPycQBlBHB5ebmgPn3hEcDJyYkIAAAAAFJRBHByciICAAAAgBV069atnZ2d3d1dEQAAAACssjIC2N/fv/ERwIsXL25+BLD12dnZZ1vLHsWSdeEkLH4MW5+d9fv9fu/uIndyHbrwdgEAAC2IAPIG3dnAfPubu72mDWbbqbu9fKMYDjNYa/TymBfv9vrjDnOSXQy2WXmlcRfVHxZ6d2fqKe/2+vPpqqcdQ3hMjRsI3tS693eOWrzVUxtzqsKja/7wAwAAiyUCyLjbqzaRW5+dXd+V2okigLu9TG8VbGH01+yLbVrP9rso28w4Amhx8qKlpo8A7vb6vd5c2sypxlBdKTh3zYteTwSwsF1MEAEAAADLJAJINPQzwZXUYU9TnS7Quzt4Kbi8e/bZ1sbWZ2dnZ8NZ39Wrv6Wguz6rXmEfLdVm9kBl/MMi+2J1/+O7tOZd1Jy+drvIRABn6TSD4GTnz8Rg5+EYMm9Q9GIYcQQvTTWG8L2Pjq+6u9FmenfD9/fucAOjLd3t9XufZQZc+VCNPTm5PjzzeQ4Wq+ZHmVOR//TG46x+evMf/nCXmR0BAABzIgJINE26Ty+Ix91m7264ieFf4nWTFyvtVtioVrfTNOjcZflxEUDm6MrGLJ3g37yLho1nTmA6/igCSE5CZfX8XnIZRfYNyq0TT1GfcgyZVnz8JydtvItmuHc3fe/Dg6wkUc0Dq9wIMIg4MqOqiwAaT0V2h5WgqfHDXzkn6YcfAACYGxFAoq6HrbZiQStTuSxaXuMturd04vxoqXCD2Rn7aZSQFd23MF0E0DyZu80uxm+neX5F3Y0AwemqSs5I9YL/6K3IvEGVjaVnaPoxxONJm/jcJyf6KPTuFh+gu73h3zIDzt2C0TCw5COUH1XtLIDMqchlDplxZiOAyc4JAAAwHyKAjPyzAFpdyw2vPfd62UvR2X5n2gggHmq0hexmw8uzYRc36y6SH7XeRasIoDGjSLdR01WefbZV075mZgFMM4bg58MDnmgWwGA2fG8wprOzs7PPtrIDzn9+2p2djbpRBWch++iH5k9vPheYaBZA5pyYEAAAAPMiAsirXlVtvns5XW64bH5q9qi3yV0yzXdBuQftJZe9M7e6Rw1p9GK4fsPs/da7yNz332IX1SNNzlf1unRyvuo2Mayzb1D1qNIr2IMVJx5D/i3dqPvkJD+vbcNzA06nX4wZWJtnAYRv7FljLJXdYeOJbfcsABEAAAAsThkBPH78+MZHABcXF/OKAFqru/w6/rJsRXwJmnmZ8I0AAABYXSKAGdU+l67FdcvwkqmrnAsiAgAAABgQAQAAAMBaEAEAAADAWlidCODq6uri4uLrr78WAQAAAEDqhz/84b179x48eFBEAF9//fXFxcXV1dWC+vTriACOj4//+I//eNknFgAAADrke9/7XhgBHB8fr0gE8Od//ufLPrcAAADQIT/4wQ92dnbu37+/v79/cHBwfHz8zTff3OAI4PLy8sWLFycnJ7u7u8s+twAAANAh7733XvEggP39/V6vd3Jy8s0331xeXt7ICKDf75cRwJMnTzY3N5d9egEAAKAT/vRP/3RnZyd8EMCinwXYv4YIoLwX4Gc/+5knAgAAAED5FIByCkB5F8ANjgDCewGePHnys5/9zFwAAAAA1ll5/b/o/8spAIu+C6C/6AigH0wEKFOAe/fubW5u/tEf/dGyTzsAAABck+9973s/+MEPbt26Vdf/L3oKQP8aIoBiIkCUAuzv7z948GB3d/cv//Iv7927d+/evR0AAABYXUXze//+/d3d3QcPHoT9f/FdgIueAtC/hgigH9wOUKYABwcHRRBQZAFFHLC7u/t/AwAAwArZHSqa36IRfvz48cHBwTX3//3rjADCuQDHx8dPnjz51a9+VWQBpX0AAABYLY8DBwcHvV7vyZMnx8fH4fz/1YkA+v3+1dVVeUdAOR2gzAJK/w0AAABWyJOqovMvLv6X/X/RMl9Db35NEUAhnA7w4sWLIgsonAAAAMDqKprfb4au8+J/6VojgH4wHaDMAkovXrz4fwEAAGCFXCTKjvjaLv6XrjsCKF0FyuP//wAAAGCFXAbCRngpnfjSIgAAAADgOokAAAAAYC2IAAAAAGAtiAAAAABgLYgAAAAAYC2IAAAAAGAtiAAAAABgLYgAAAAAYC2IAABgWd58eXj45ZtljwIAWBsiAACYyJsvD38y8sX5bJtKI4DzL34yNhc4/+Ins4yhzS7a7r3dhqpHOqpmHAkAMBkRAAC09+bLw0rPev7FLB3s1LMAzr8I+v7zL2ZMImbYe9sjqIsAAIBrJQIAgNbqLlq/+fLw8PBwcEW+Mk0g6JXT6/aj1YLL6aMGe3S1Pe7wKxFApaUO9pN5afBasHp4RX+wQnZUNXt/8+XhF+eDfQSbTNZqmAUwXH+yE/jll00jBADyRAAA0Nqo+S070sMv31Q74NCo1w174HLpYLXRX4f7aJojH0UAw7oyjMEec1fcg8Y7cz0/O6po9TTOKIcUj616uqK4ITeS8ScwODV1KwIAOSIAAGgtbsuHfWm1z87dK19ZIrz2HbS1lRa6cbJ8zSyAam9etufJbIIgZYgTg7pR1e69XHowISB/a0SbWQDtT2A4gOwIAYA8EQAAtBc9CyAXAbTqq8uuuTYCaD8LYPQsgHH32MetfzQ1YaoIYDTMN18eHn7xRX4Ek0QAkwUTIgAAmIAIAAAmkrurv9LhVhcIZtfn7m+vjwDGPAsgnYqf7nxwI0Dt9PvJrreP33v9gwknmgVQdwJFAAAwKxEAAFyDzj8Efw5fz9f5YwSAtScCAIBr0M32OLzePuu1dA/mA4DuEwEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBaEAEAAADAWhABAAAAwFoQAQAAAMBa+P8BAmYdIvvbbTQAAAAASUVORK5CYII="/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16306800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2457,10 +3494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2562,31 +3599,236 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1"/>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1"/>
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="1" customFormat="1" ht="13.5">
+      <c r="A73" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="1" customFormat="1" ht="13.5">
+      <c r="A74" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" s="1" customFormat="1" ht="13.5"/>
+    <row r="76" spans="1:1" s="1" customFormat="1" ht="13.5">
+      <c r="A76" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" s="1" customFormat="1" ht="13.5"/>
+    <row r="78" spans="1:1" s="1" customFormat="1" ht="13.5">
+      <c r="A78" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" s="1" customFormat="1" ht="13.5"/>
+    <row r="80" spans="1:1">
+      <c r="A80" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="20"/>
+      <c r="B81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="19"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" s="19"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>283</v>
+      </c>
+      <c r="B85" s="19"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" s="19"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="19"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" s="19"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E48" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2595,7 +3837,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2607,7 +3849,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2617,32 +3859,32 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2664,22 +3906,22 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2687,17 +3929,17 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2722,67 +3964,67 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -2790,575 +4032,575 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="10" customFormat="1">
       <c r="A23" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:1" s="10" customFormat="1">
       <c r="A84" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:1" s="10" customFormat="1">
       <c r="A85" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:1" s="10" customFormat="1">
       <c r="A86" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:1" s="10" customFormat="1">
       <c r="A87" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:1" s="10" customFormat="1">
       <c r="A88" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:1" s="10" customFormat="1">
       <c r="A89" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3366,7 +4608,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -3376,7 +4618,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -3386,12 +4628,12 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -3399,72 +4641,72 @@
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -3497,7 +4739,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3510,7 +4752,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3534,7 +4776,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3547,7 +4789,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3571,7 +4813,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3584,7 +4826,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3605,7 +4847,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3629,7 +4871,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3642,7 +4884,7 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3655,7 +4897,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3679,7 +4921,7 @@
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3691,104 +4933,104 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3796,4 +5038,440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22">
+        <v>2</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="22">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="22">
+        <v>4</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22">
+        <v>5</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22">
+        <v>6</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22">
+        <v>7</v>
+      </c>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22">
+        <v>8</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="22">
+        <v>9</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="22">
+        <v>11</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="22">
+        <v>12</v>
+      </c>
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="22">
+        <v>13</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="22">
+        <v>14</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="22">
+        <v>15</v>
+      </c>
+      <c r="B27" s="27"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="22">
+        <v>16</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="22">
+        <v>17</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="22">
+        <v>18</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="22">
+        <v>19</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="22">
+        <v>20</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22">
+        <v>21</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="22">
+        <v>22</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="22">
+        <v>23</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="22">
+        <v>24</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22">
+        <v>25</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="22">
+        <v>26</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="22">
+        <v>27</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="22">
+        <v>28</v>
+      </c>
+      <c r="B40" s="27"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="22">
+        <v>29</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1">
+      <c r="A42" s="23">
+        <v>30</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="24"/>
+      <c r="B49" s="19"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" s="19"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="19"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53" s="19"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="19"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="19"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="19"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" s="19"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="24"/>
+      <c r="B62" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="http://www.cnblogs.com/zhi-leaf/p/5932011.html"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://www.cnblogs.com/zhi-leaf/p/5996287.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="redis" sheetId="4" r:id="rId4"/>
     <sheet name="mongo" sheetId="5" r:id="rId5"/>
     <sheet name="activeMQ" sheetId="6" r:id="rId6"/>
+    <sheet name="php扩展stomp" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="311">
   <si>
     <r>
       <t>1.</t>
@@ -2692,13 +2693,515 @@
       <t>登录进去，之后必须执行以下语句进行密码的修改，其他语句都执行不了</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展的下载地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>http://pecl.php.net/package/stomp</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载对应的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下安装比较简单，不再介绍了，安装之后到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>phpinfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看是否安装成了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下面是在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下面的安装步骤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在php.ini中添加</t>
+  </si>
+  <si>
+    <t>extension = stomp.so</t>
+  </si>
+  <si>
+    <t>下载压缩包之后，放在某个目录，之后进入某个目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar -zxf stomp-2.0.0.tgz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd stomp-2.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/bin/phpize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./configure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形式是广播的形式，每一个消费者都会收到消息，不要用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际使用时，采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方式，不要使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>topic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是点对点，采用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$destination =/queue/test1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的形式，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$destination =/topic/test2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的形式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且发送时，设置消息的可持续化，这样，即使消费者不在线，也会等消费者上线之后，将该消息发给消费者，并且测试了下，部署多个同样的消费者，不会对一个消息重复消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> $result = $stomp-&gt;send($destination, $body, array('persistent' =&gt; 'true'));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且在消费端的订阅代码中，指定参数，这样可以避免接收消息慢的问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> $stomp-&gt;subscribe($destination, array("activemq.prefetchSize" =&gt; 1000)); </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询某个端口是否有程序在监听：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> netstat -apn | grep 9040</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下的开发扩展</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://pecl.php.net/package/redis </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到这里去下自己的对应版本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后放入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹，然后在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>php.ini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的配置就可以了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">crontab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service crond restart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2903,6 +3406,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF737373"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2971,7 +3489,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3029,6 +3547,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3496,7 +4015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
@@ -3834,10 +4353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3885,6 +4404,21 @@
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3951,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F163"/>
+  <dimension ref="A2:F168"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4709,10 +5243,28 @@
         <v>166</v>
       </c>
     </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A166" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5044,7 +5596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -5472,6 +6024,117 @@
     <hyperlink ref="A2" r:id="rId2" display="http://www.cnblogs.com/zhi-leaf/p/5996287.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5">
+      <c r="A9" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.5">
+      <c r="A10" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5">
+      <c r="A11" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16.5">
+      <c r="A12" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5">
+      <c r="A13" s="31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16.5">
+      <c r="A14" s="31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.5">
+      <c r="A15" s="31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16.5">
+      <c r="A16" s="31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="H22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="317">
   <si>
     <r>
       <t>1.</t>
@@ -2259,9 +2259,6 @@
     <t>2、在/ursr/local/目录下新建activemq文件夹，并进入该文件夹，执行如下命令解压文件。</t>
   </si>
   <si>
-    <t>cd /ursr/local</t>
-  </si>
-  <si>
     <t>mkdir activemq</t>
   </si>
   <si>
@@ -3195,6 +3192,193 @@
   </si>
   <si>
     <t>service crond restart</t>
+  </si>
+  <si>
+    <t>cd /usr/local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service mongodb status</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何停止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mogodb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ps  -ef |grep mongodb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">找到你要查找的进程号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">kill -s 9  pid    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杀掉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当我们以带权限的方式启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mongo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后，一个账号登陆进去是不能操作用户的，这时，我们需要停掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mongo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以无权限的方式启动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后，我们就可以给某个数据库新增用户，设置角色和密码了，之后再关掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mongo,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后以带权限的方式启动，这样，我们就可以用刚刚设置的用户名和密码来连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mongodb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们新增一个数据库之后，必须给该数据库新增用户，给该用户设置角色和密码等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4282,12 +4466,12 @@
     <row r="81" spans="1:2">
       <c r="A81" s="20"/>
       <c r="B81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4295,25 +4479,25 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B84" s="19"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B85" s="19"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B86" s="19"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="19"/>
     </row>
@@ -4355,7 +4539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -4408,17 +4592,17 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5245,17 +5429,17 @@
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5270,10 +5454,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5585,6 +5769,36 @@
         <v>204</v>
       </c>
     </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5596,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5613,7 +5827,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="19"/>
     </row>
@@ -5635,37 +5849,37 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B11" s="19"/>
     </row>
@@ -5686,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5694,7 +5908,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5702,7 +5916,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5710,7 +5924,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5718,7 +5932,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5732,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5740,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5748,7 +5962,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5756,7 +5970,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5770,7 +5984,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5778,7 +5992,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5792,7 +6006,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5800,7 +6014,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5808,7 +6022,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5816,7 +6030,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5824,7 +6038,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5832,7 +6046,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5840,7 +6054,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5848,7 +6062,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5856,7 +6070,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5864,7 +6078,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5872,7 +6086,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5880,7 +6094,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5902,7 +6116,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5911,31 +6125,31 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B44" s="19"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B45" s="19"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" s="19"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47" s="19"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="19"/>
     </row>
@@ -5945,7 +6159,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="19"/>
     </row>
@@ -5955,61 +6169,61 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="19"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B53" s="19"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" s="19"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B55" s="19"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" s="19"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B57" s="19"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B58" s="19"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B59" s="19"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B60" s="19"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B61" s="19"/>
     </row>
@@ -6041,95 +6255,95 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
       <c r="A10" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5">
       <c r="A11" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5">
       <c r="A12" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5">
       <c r="A13" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5">
       <c r="A14" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5">
       <c r="A15" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5">
       <c r="A16" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="341">
   <si>
     <r>
       <t>1.</t>
@@ -1982,12 +1982,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wget http://dev.mysql.com/get/mysql57-community-release-el7-9.noarch.rpm</t>
-  </si>
-  <si>
-    <t>rpm -qa|grep mysql</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2140,10 +2134,6 @@
   </si>
   <si>
     <t>查看MySQL的启动状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shell&gt; systemctl status mysqld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2217,10 +2207,6 @@
       </rPr>
       <t xml:space="preserve">systemctl status firewalld </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rm -rf /var/lib/mysql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3378,6 +3364,307 @@
   </si>
   <si>
     <t>我们新增一个数据库之后，必须给该数据库新增用户，给该用户设置角色和密码等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>centos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cat /etc/redhat-release</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm -rf /var/lib/mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm -qa|grep mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wget http://dev.mysql.com/get/mysql57-community-release-el7-9.noarch.rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl status mysqld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端口：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firewall-cmd --add-port=3306/tcp --permanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firewall-cmd --reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后去设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据和日志目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>binlog,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>binlog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认字符集：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default-character-set=utf8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[client]  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果有需要设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_allowed_packet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭SELinux：</t>
+  </si>
+  <si>
+    <t>1、临时关闭（不用重启机器）：</t>
+  </si>
+  <si>
+    <t>setenforce 0                  ##设置SELinux 成为permissive模式</t>
+  </si>
+  <si>
+    <t>                              ##setenforce 1 设置SELinux 成为enforcing模式</t>
+  </si>
+  <si>
+    <t>2、修改配置文件需要重启机器：</t>
+  </si>
+  <si>
+    <t>修改/etc/selinux/config 文件</t>
+  </si>
+  <si>
+    <t>将SELINUX=enforcing改为SELINUX=disabled</t>
+  </si>
+  <si>
+    <t>重启机器即可</t>
+  </si>
+  <si>
+    <t>注意启动失败的话，可以根据提示，输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalctl -xe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看具体的出错原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.有时候需要：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据目录到数据盘中，具体的过程，查看我的博客吧。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3673,7 +3960,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3732,6 +4019,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4197,10 +4488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E93"/>
+  <dimension ref="A2:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4340,45 +4631,45 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4407,71 +4698,71 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:1" s="1" customFormat="1" ht="13.5">
       <c r="A73" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="1" customFormat="1" ht="13.5">
       <c r="A74" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:1" s="1" customFormat="1" ht="13.5"/>
     <row r="76" spans="1:1" s="1" customFormat="1" ht="13.5">
       <c r="A76" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:1" s="1" customFormat="1" ht="13.5"/>
     <row r="78" spans="1:1" s="1" customFormat="1" ht="13.5">
       <c r="A78" s="1" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:1" s="1" customFormat="1" ht="13.5"/>
     <row r="80" spans="1:1">
       <c r="A80" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="20"/>
       <c r="B81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" s="19" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4479,25 +4770,25 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B84" s="19"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B85" s="19"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B86" s="19"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B87" s="19"/>
     </row>
@@ -4506,22 +4797,95 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="B93" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="33"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4537,10 +4901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4572,7 +4936,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4592,17 +4956,67 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5429,17 +5843,17 @@
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -5771,32 +6185,32 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5821,13 +6235,13 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B2" s="19"/>
     </row>
@@ -5837,49 +6251,49 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="24" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B4" s="19"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B11" s="19"/>
     </row>
@@ -5900,7 +6314,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5908,7 +6322,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5916,7 +6330,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5924,7 +6338,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5932,7 +6346,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5946,7 +6360,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5954,7 +6368,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5962,7 +6376,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5970,7 +6384,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5984,7 +6398,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5992,7 +6406,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6006,7 +6420,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6014,7 +6428,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6022,7 +6436,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6030,7 +6444,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6038,7 +6452,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6046,7 +6460,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6054,7 +6468,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6062,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6070,7 +6484,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6078,7 +6492,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6086,7 +6500,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6094,7 +6508,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6116,7 +6530,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6125,31 +6539,31 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="24" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B44" s="19"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B45" s="19"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B46" s="19"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B47" s="19"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B48" s="19"/>
     </row>
@@ -6159,7 +6573,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B50" s="19"/>
     </row>
@@ -6169,61 +6583,61 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B52" s="19"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="24" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B53" s="19"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B54" s="19"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B55" s="19"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B56" s="19"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B57" s="19"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B58" s="19"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B59" s="19"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B60" s="19"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B61" s="19"/>
     </row>
@@ -6255,95 +6669,95 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
       <c r="A10" s="31" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5">
       <c r="A11" s="31" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5">
       <c r="A12" s="31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5">
       <c r="A13" s="31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5">
       <c r="A14" s="31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5">
       <c r="A15" s="31" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5">
       <c r="A16" s="31" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="355">
   <si>
     <r>
       <t>1.</t>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  rpm -Uvh http://nginx.org/packages/centos/7/noarch/RPMS/nginx-release-centos-7-0.el7.ngx.noarch.rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>之后：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,22 +665,6 @@
   </si>
   <si>
     <t>可以改成这样的执行语句：/usr/bin/php  server.php &amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. wget http://download.redis.io/releases/redis-3.2.5.tar.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. cd /usr/src</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. tar xzf redis-3.2.5.tar.gz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. cd redis-3.2.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -757,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vim /etc/redis.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>daemonize yes</t>
   </si>
   <si>
@@ -912,15 +888,6 @@
   </si>
   <si>
     <t>aof-rewrite-incremental-fsync yes</t>
-  </si>
-  <si>
-    <t>pidfile "/data/redis/pid/redis.pid"</t>
-  </si>
-  <si>
-    <t>logfile "/data/redis/log/redis.log"</t>
-  </si>
-  <si>
-    <t>dir "/data/redis/db"</t>
   </si>
   <si>
     <t>requirepass "123456"</t>
@@ -1562,44 +1529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. ./bin/mongod --dbpath=./db --logpath=./log/mongodb.log --fork --auth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，搞定，然后可以参看下端口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>netstat -nalupt | grep mongo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF555555"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1649,44 +1578,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>然后还需要执行：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">chmod +x /etc/rc.d/rc.local </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，让这个文件有执行权限，然后才可以开机启动哦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这样开机启动运行了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意如果不执行的话，需要： chmod +x /etc/rc.d/rc.local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后采用这样的方式了，在：/etc/rc.d/rc.local文件里边加上下面一句话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2239,16 +2131,10 @@
     </r>
   </si>
   <si>
-    <t>1、下载activemq，下载地址：http://archive.apache.org/dist/activemq。测试版本为apache-activemq-5.14.1。</t>
-  </si>
-  <si>
     <t>2、在/ursr/local/目录下新建activemq文件夹，并进入该文件夹，执行如下命令解压文件。</t>
   </si>
   <si>
     <t>mkdir activemq</t>
-  </si>
-  <si>
-    <t>tar -xzvf apache-activemq-5.14.1-bin.tar.gz</t>
   </si>
   <si>
     <t>3、在/etc/init.d/目录增加增加activemq文件，文件内容为：</t>
@@ -2444,9 +2330,6 @@
     <t>　　查看activemq状态</t>
   </si>
   <si>
-    <t>service activemq status</t>
-  </si>
-  <si>
     <t>　　其他和关闭activemq服务</t>
   </si>
   <si>
@@ -3184,9 +3067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>service mongodb status</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3462,121 +3342,606 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后去设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据和日志目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置开启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>binlog,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>binlog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认字符集：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default-character-set=utf8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[client]  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果有需要设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_allowed_packet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭SELinux：</t>
+  </si>
+  <si>
+    <t>1、临时关闭（不用重启机器）：</t>
+  </si>
+  <si>
+    <t>setenforce 0                  ##设置SELinux 成为permissive模式</t>
+  </si>
+  <si>
+    <t>                              ##setenforce 1 设置SELinux 成为enforcing模式</t>
+  </si>
+  <si>
+    <t>2、修改配置文件需要重启机器：</t>
+  </si>
+  <si>
+    <t>修改/etc/selinux/config 文件</t>
+  </si>
+  <si>
+    <t>将SELINUX=enforcing改为SELINUX=disabled</t>
+  </si>
+  <si>
+    <t>重启机器即可</t>
+  </si>
+  <si>
+    <t>注意启动失败的话，可以根据提示，输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalctl -xe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看具体的出错原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.有时候需要：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的数据目录到数据盘中，具体的过程，查看我的博客吧。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firewall-cmd --reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. cd /usr/src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. tar xzf redis-3.2.5.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. cd redis-3.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pidfile "/data/redis/pid/redis.pid"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logfile "/data/redis/log/redis.log"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir "/data/redis/db"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ./bin/mongod --dbpath=./db --logpath=./log/mongodb.log --fork --auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，搞定，然后可以参看下端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>netstat -nalupt | grep mongo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>firewall-cmd --add-port=3306/tcp --permanent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>firewall-cmd --reload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>之后去设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mysql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数据和日志目录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置开启</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>binlog,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并且设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>binlog</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的目录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置默认字符集：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default-character-set=utf8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[client]  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果有需要设置</t>
+    <t>service mongodb status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后还需要执行：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">chmod +x /etc/rc.d/rc.local </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，让这个文件有执行权限，然后才可以开机启动哦</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. wget http://download.redis.io/releases/redis-3.2.5.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim /etc/redis.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后采用这样的方式了，在：/etc/rc.d/rc.local文件里边加上下面一句话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意如果不执行的话，需要： chmod +x /etc/rc.d/rc.local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activemq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，下载地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://archive.apache.org/dist/activemq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。测试版本为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>apache-activemq-5.14.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到远程服务器拷贝文件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、远程文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹下载
+举例，把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>192.168.62.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/root/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹，下载到本地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/home/administrator/Desktop/new/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下，使用远程端的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登陆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scp -r root@192.168.62.10:/root/ /home/administrator/Desktop/new/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先测试下吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> java -version ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果有了，表示系统默认安装了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从其他服务器拷贝文件的命令：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  scp -r root@192.168.1.222:/usr/local/activemq/apache-activemq-5.14.1-bin.tar.gz   /usr/local/activemq</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd activemq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar -xzvf apache-activemq-5.14.1-bin.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkconfig activemq on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service activemq start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service activemq status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端口开放</t>
     </r>
     <r>
       <rPr>
@@ -3591,80 +3956,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max_allowed_packet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭SELinux：</t>
-  </si>
-  <si>
-    <t>1、临时关闭（不用重启机器）：</t>
-  </si>
-  <si>
-    <t>setenforce 0                  ##设置SELinux 成为permissive模式</t>
-  </si>
-  <si>
-    <t>                              ##setenforce 1 设置SELinux 成为enforcing模式</t>
-  </si>
-  <si>
-    <t>2、修改配置文件需要重启机器：</t>
-  </si>
-  <si>
-    <t>修改/etc/selinux/config 文件</t>
-  </si>
-  <si>
-    <t>将SELINUX=enforcing改为SELINUX=disabled</t>
-  </si>
-  <si>
-    <t>重启机器即可</t>
-  </si>
-  <si>
-    <t>注意启动失败的话，可以根据提示，输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>journalctl -xe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看具体的出错原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.有时候需要：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>之后设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mysql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数据目录到数据盘中，具体的过程，查看我的博客吧。</t>
-    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例如：开放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端口：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  rpm -Uvh http://nginx.org/packages/centos/7/noarch/RPMS/nginx-release-centos-7-0.el7.ngx.noarch.rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置开机启动：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># chkconfig --level 345 nginx on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置php开机启动：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> # chkconfig --level 345 php-fpm on </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4039,13 +4380,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4086,13 +4427,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4138,13 +4479,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4171,13 +4512,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4488,10 +4829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E115"/>
+  <dimension ref="A2:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4508,185 +4849,189 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16.5">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16.5">
-      <c r="A16" s="2" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" t="s">
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>231</v>
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>315</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>213</v>
+      <c r="A43" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>316</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1"/>
-      <c r="E49" s="18"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1"/>
-      <c r="E50" s="18"/>
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1"/>
-      <c r="E51" s="18"/>
+      <c r="A51" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1"/>
-      <c r="E52" s="18"/>
+      <c r="A52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
@@ -4696,202 +5041,218 @@
       <c r="A54" s="1"/>
       <c r="E54" s="18"/>
     </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="E56" s="18"/>
+    </row>
     <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" s="1" customFormat="1" ht="13.5">
-      <c r="A73" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" s="1" customFormat="1" ht="13.5">
-      <c r="A74" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" s="1" customFormat="1" ht="13.5"/>
-    <row r="76" spans="1:1" s="1" customFormat="1" ht="13.5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" s="1" customFormat="1" ht="13.5"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" s="1" customFormat="1" ht="13.5">
+      <c r="A77" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="78" spans="1:1" s="1" customFormat="1" ht="13.5">
       <c r="A78" s="1" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:1" s="1" customFormat="1" ht="13.5"/>
-    <row r="80" spans="1:1">
-      <c r="A80" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="20"/>
-      <c r="B81" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="B82" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" s="19"/>
-    </row>
+    <row r="80" spans="1:1" s="1" customFormat="1" ht="13.5">
+      <c r="A80" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="1" customFormat="1" ht="13.5"/>
+    <row r="82" spans="1:2" s="1" customFormat="1" ht="13.5">
+      <c r="A82" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="1" customFormat="1" ht="13.5"/>
     <row r="84" spans="1:2">
-      <c r="A84" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B84" s="19"/>
+      <c r="A84" s="20" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>278</v>
-      </c>
-      <c r="B85" s="19"/>
+      <c r="A85" s="20"/>
+      <c r="B85" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B86" s="19"/>
+      <c r="B86" s="19" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>280</v>
-      </c>
       <c r="B87" s="19"/>
     </row>
     <row r="88" spans="1:2">
+      <c r="A88" s="19" t="s">
+        <v>260</v>
+      </c>
       <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>226</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B89" s="19"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="B90" t="s">
-        <v>227</v>
-      </c>
+      <c r="A90" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" s="19"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="19"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="B92" s="19"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="B93" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>318</v>
+      <c r="A93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="A96" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="33"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+    <row r="106" spans="1:2">
+      <c r="A106" s="33"/>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>327</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
-        <v>336</v>
+      <c r="A113" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
-        <v>338</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E48" r:id="rId1"/>
+    <hyperlink ref="E52" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4901,122 +5262,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="7" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>335</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5038,22 +5434,22 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5061,17 +5457,17 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5085,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F168"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5096,67 +5492,67 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -5164,575 +5560,575 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="10" customFormat="1">
       <c r="A23" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>100</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="10" customFormat="1">
+      <c r="A24" s="10" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
-        <v>101</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="10" customFormat="1">
+      <c r="A30" s="10" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
-        <v>156</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="10" customFormat="1">
+      <c r="A32" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="5" t="s">
-        <v>103</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="10" customFormat="1">
+      <c r="A40" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="10" customFormat="1">
+      <c r="A41" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:1" s="10" customFormat="1">
       <c r="A84" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:1" s="10" customFormat="1">
       <c r="A85" s="10" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:1" s="10" customFormat="1">
       <c r="A86" s="10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:1" s="10" customFormat="1">
       <c r="A87" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:1" s="10" customFormat="1">
       <c r="A88" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:1" s="10" customFormat="1">
       <c r="A89" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5740,7 +6136,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="14" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5750,7 +6146,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="10" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5760,12 +6156,12 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="8" t="s">
-        <v>184</v>
+        <v>336</v>
       </c>
     </row>
     <row r="146" spans="1:1">
@@ -5773,87 +6169,87 @@
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="5" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="18" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="5" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5870,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5889,7 +6285,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -5902,7 +6298,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -5926,7 +6322,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5939,7 +6335,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -5963,7 +6359,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5976,7 +6372,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5997,7 +6393,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6021,7 +6417,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6034,7 +6430,7 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6047,7 +6443,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6071,7 +6467,7 @@
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="13" t="s">
-        <v>178</v>
+        <v>329</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -6083,134 +6479,134 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="15" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="15" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="16" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="17" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="10" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="19" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6222,10 +6618,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6235,415 +6631,437 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="18" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="19" t="s">
+        <v>341</v>
+      </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
-        <v>233</v>
+      <c r="A4" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="B4" s="19"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
-        <v>234</v>
-      </c>
+      <c r="A5" s="19"/>
       <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>306</v>
-      </c>
+      <c r="A6" s="19"/>
       <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>235</v>
+      <c r="A7" s="24" t="s">
+        <v>337</v>
       </c>
       <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>236</v>
+      <c r="A8" s="24" t="s">
+        <v>219</v>
       </c>
       <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
-        <v>237</v>
+      <c r="A9" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="B11" s="19"/>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>344</v>
+      </c>
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="21">
+      <c r="A13" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="22">
-        <v>2</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="22">
-        <v>3</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="22">
-        <v>4</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="22">
-        <v>5</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>243</v>
+      <c r="B17" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="22">
-        <v>7</v>
-      </c>
-      <c r="B19" s="27"/>
+        <v>3</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="22">
-        <v>11</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>248</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22">
-        <v>12</v>
-      </c>
-      <c r="B24" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="22">
-        <v>14</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>250</v>
+        <v>10</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="22">
-        <v>15</v>
-      </c>
-      <c r="B27" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="22">
-        <v>16</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>251</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B28" s="27"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="22">
-        <v>17</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>252</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="22">
-        <v>18</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>253</v>
+        <v>14</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="22">
-        <v>19</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>254</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B31" s="27"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="22">
-        <v>20</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>255</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="22">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="22">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="22">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="22">
-        <v>28</v>
-      </c>
-      <c r="B40" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="22">
+        <v>25</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="22">
+        <v>26</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="22">
+        <v>27</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="22">
+        <v>28</v>
+      </c>
+      <c r="B44" s="27"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="22">
         <v>29</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1">
-      <c r="A42" s="23">
+      <c r="B45" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1">
+      <c r="A46" s="23">
         <v>30</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="B44" s="19"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B45" s="19"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="30" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
-        <v>263</v>
-      </c>
+      <c r="A47" s="19"/>
       <c r="B47" s="19"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
-        <v>264</v>
+      <c r="A48" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="B48" s="19"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="24"/>
+      <c r="A49" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="B49" s="19"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="24" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B50" s="19"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="B51" s="19"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="24" t="s">
-        <v>266</v>
+      <c r="A52" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="B52" s="19"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="24" t="s">
-        <v>267</v>
-      </c>
+      <c r="A53" s="24"/>
       <c r="B53" s="19"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="24" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B54" s="19"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
-        <v>269</v>
-      </c>
+      <c r="A55" s="24"/>
       <c r="B55" s="19"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="24" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B56" s="19"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="6" t="s">
-        <v>264</v>
+      <c r="A57" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="B57" s="19"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
-        <v>271</v>
+      <c r="A58" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="B58" s="19"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="24" t="s">
-        <v>272</v>
+      <c r="A59" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="B59" s="19"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
-        <v>263</v>
+      <c r="A60" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="B60" s="19"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="24"/>
+      <c r="A62" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="B62" s="19"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="19"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="19"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="24"/>
+      <c r="B66" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6669,95 +7087,95 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="31" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
       <c r="A10" s="31" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5">
       <c r="A11" s="31" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5">
       <c r="A12" s="31" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5">
       <c r="A13" s="31" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5">
       <c r="A14" s="31" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5">
       <c r="A15" s="31" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5">
       <c r="A16" s="31" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="H22" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/电子签约平台/环境安装-部署等.xlsx
+++ b/电子签约平台/环境安装-部署等.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="391">
   <si>
     <r>
       <t>1.</t>
@@ -3841,10 +3841,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use easysigncloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/data/src/mongodb-linux-x86_64-2.6.4/bin/mongod --dbpath=/data/src/mongodb-linux-x86_64-2.6.4/db --logpath=/data/src/mongodb-linux-x86_64-2.6.4/log/mongodb.log --fork --auth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4377,15 +4373,328 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>db.createUser({user:"root",pwd:"root",roles:[{role:"readWrite",db:"easysigncloud"}]})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db.createUser({user:"root",pwd:"root",roles:[{role:"readWrite",db:"easysigncloudlog"}]})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>echo "/usr/src/mongodb-linux-x86_64-2.6.4/bin/mongod --dbpath=/data/mongo/db --logpath=/data/src/mongodb-linux-x86_64-2.6.4/log/mongodb.log --fork --auth" &gt;&gt; /etc/rc.local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use easysigncloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbOwner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.createUser({user:"root",pwd:"root",roles:[{role:"dbOwner",db:"easysigncloud"}]})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.createUser({user:"root",pwd:"root",roles:[{role:"dbOwner",db:"easysigncloudlog"}]})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如何查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中哪个进程在使用网络多呢，方法是：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iftop ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: yum install iftop</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> iftop </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以查询到网络的实时使用情况，这样可以发现里边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用命令：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>netstat -tnp | grep 118.190.132.63</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查到的，然后可以找到这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的进程：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后使用命令：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ps aux | grep 2629</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   2629</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查出来的进程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这样就可以查询出来是哪个进程在执行了</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4393,7 +4702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4613,6 +4922,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4699,7 +5015,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4774,6 +5090,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4884,6 +5201,58 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8763000"/>
+          <a:ext cx="6305550" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5262,7 +5631,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5282,7 +5651,7 @@
     </row>
     <row r="8" spans="1:1" s="33" customFormat="1">
       <c r="A8" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -5315,7 +5684,7 @@
         <v>296</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
@@ -5343,17 +5712,17 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -5368,7 +5737,7 @@
     </row>
     <row r="27" spans="1:16" s="33" customFormat="1">
       <c r="A27" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -5675,12 +6044,12 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="28.5">
       <c r="A122" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5696,10 +6065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5776,7 +6145,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -5786,7 +6155,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -5826,7 +6195,7 @@
     </row>
     <row r="35" spans="1:1" ht="20.25" customHeight="1">
       <c r="A35" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -5847,12 +6216,53 @@
     <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5926,62 +6336,62 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -5999,12 +6409,12 @@
     </row>
     <row r="23" spans="1:1" s="10" customFormat="1">
       <c r="A23" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="10" customFormat="1">
       <c r="A24" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -6034,7 +6444,7 @@
     </row>
     <row r="30" spans="1:1" s="10" customFormat="1">
       <c r="A30" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -6044,7 +6454,7 @@
     </row>
     <row r="32" spans="1:1" s="10" customFormat="1">
       <c r="A32" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -6084,12 +6494,12 @@
     </row>
     <row r="40" spans="1:1" s="10" customFormat="1">
       <c r="A40" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:1" s="10" customFormat="1">
       <c r="A41" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -6580,7 +6990,7 @@
     </row>
     <row r="143" spans="1:6" s="37" customFormat="1">
       <c r="A143" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B143" s="36"/>
       <c r="C143" s="36"/>
@@ -6595,7 +7005,7 @@
     </row>
     <row r="145" spans="1:11" s="37" customFormat="1">
       <c r="A145" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -6608,14 +7018,14 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E149" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H149" s="37"/>
       <c r="I149" s="37"/>
@@ -6624,12 +7034,12 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -6711,8 +7121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6735,7 +7145,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -6743,7 +7153,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6759,7 +7169,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -6792,7 +7202,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
@@ -6811,7 +7221,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -6839,7 +7249,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K8" s="33"/>
     </row>
@@ -6856,13 +7266,13 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6873,7 +7283,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K10" s="33"/>
     </row>
@@ -6885,7 +7295,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="J11" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
@@ -6929,7 +7339,7 @@
     </row>
     <row r="15" spans="1:16" s="41" customFormat="1" ht="15">
       <c r="A15" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -6964,7 +7374,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
@@ -7009,12 +7419,12 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:26">
       <c r="K24" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -7040,7 +7450,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="K27" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
@@ -7061,12 +7471,12 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -7076,22 +7486,25 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>308</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="K36" s="44" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -7106,7 +7519,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="F42" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
@@ -7250,7 +7663,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="33"/>
@@ -7258,7 +7671,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="33"/>
@@ -7296,7 +7709,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="18"/>
     </row>
@@ -7308,7 +7721,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="18"/>
     </row>
@@ -7320,7 +7733,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" s="18"/>
     </row>
@@ -7578,13 +7991,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B53" s="18"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B54" s="18"/>
     </row>
@@ -7602,11 +8015,11 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B57" s="18"/>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -7615,7 +8028,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" s="18"/>
     </row>
@@ -7736,32 +8149,32 @@
     </row>
     <row r="9" spans="1:1" ht="16.5">
       <c r="A9" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5">
       <c r="A10" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5">
       <c r="A11" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5">
       <c r="A12" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5">
       <c r="A13" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5">
       <c r="A14" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5">
@@ -7771,7 +8184,7 @@
     </row>
     <row r="16" spans="1:1" ht="16.5">
       <c r="A16" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:8">
